--- a/redistricting_2021/5_compactness/compactness_thresholds.xlsx
+++ b/redistricting_2021/5_compactness/compactness_thresholds.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avagnoz\Desktop\clemson_redistricting_team\vagnozzi_redistricting_2021\5_compactness\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avagnoz\Desktop\gerrymandering_public\redistricting_2021\5_compactness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B046DB-C7AC-4E36-972D-3D1383079567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C475964-0954-4ADC-9B44-0A9F2C568C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="1140" windowWidth="21600" windowHeight="11265" xr2:uid="{8AAFAC47-0109-4389-85E0-EB53FF478A0B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{8AAFAC47-0109-4389-85E0-EB53FF478A0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Threshholds" sheetId="9" r:id="rId1"/>
     <sheet name="Cong2011" sheetId="1" r:id="rId2"/>
     <sheet name="CongLWV" sheetId="4" r:id="rId3"/>
     <sheet name="CongDraft" sheetId="10" r:id="rId4"/>
-    <sheet name="Sen2011" sheetId="2" r:id="rId5"/>
-    <sheet name="SenLWV" sheetId="5" r:id="rId6"/>
-    <sheet name="SenDraft" sheetId="6" r:id="rId7"/>
-    <sheet name="House2011" sheetId="3" r:id="rId8"/>
-    <sheet name="HouseLWV" sheetId="7" r:id="rId9"/>
-    <sheet name="HouseDraft" sheetId="8" r:id="rId10"/>
+    <sheet name="CongDrft2H" sheetId="11" r:id="rId5"/>
+    <sheet name="Sen2011" sheetId="2" r:id="rId6"/>
+    <sheet name="SenLWV" sheetId="5" r:id="rId7"/>
+    <sheet name="SenDraft" sheetId="6" r:id="rId8"/>
+    <sheet name="House2011" sheetId="3" r:id="rId9"/>
+    <sheet name="HouseLWV" sheetId="7" r:id="rId10"/>
+    <sheet name="HouseDraft" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="29">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -128,6 +129,9 @@
   <si>
     <t>Threshold Set</t>
   </si>
+  <si>
+    <t>CongDrft2H</t>
+  </si>
 </sst>
 </file>
 
@@ -138,7 +142,7 @@
     <numFmt numFmtId="165" formatCode="0.0000000000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +185,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,8 +221,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor rgb="FFE6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -390,12 +405,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16">
+      <alignment horizontal="left"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -508,10 +535,14 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Style0" xfId="2" xr:uid="{4A874166-FB8B-4431-8A53-257F93E8C31A}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -854,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555649EE-C27D-4C7D-9A3A-9DA5E3A52A08}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1048,6 +1079,3612 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E621A63A-E609-45E6-A266-FEFE205C7A04}">
+  <dimension ref="A1:L131"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1321.7655748471</v>
+      </c>
+      <c r="D2">
+        <v>239.74840565269119</v>
+      </c>
+      <c r="E2">
+        <v>1321.765574846884</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="40"/>
+      <c r="I2" s="45">
+        <f>SUM(D2:D125)</f>
+        <v>18966.706631981397</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>496.92382004112</v>
+      </c>
+      <c r="D3">
+        <v>152.17879775770609</v>
+      </c>
+      <c r="E3">
+        <v>496.92382004096203</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="42"/>
+      <c r="I3" s="44"/>
+      <c r="K3" s="11">
+        <v>19440</v>
+      </c>
+      <c r="L3" s="12">
+        <f>(K3-I2)/I2</f>
+        <v>2.4953903553321305E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>209.74952018331001</v>
+      </c>
+      <c r="D4">
+        <v>120.4590536897483</v>
+      </c>
+      <c r="E4">
+        <v>209.74952018337191</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="K4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>917.08478372720992</v>
+      </c>
+      <c r="D5">
+        <v>195.2591138212222</v>
+      </c>
+      <c r="E5">
+        <v>917.08478372759089</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="13">
+        <v>485</v>
+      </c>
+      <c r="L5" s="14">
+        <f>(K5-I130)/I130</f>
+        <v>2.2395048290277577E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>164.88352690363999</v>
+      </c>
+      <c r="D6">
+        <v>85.544954209359176</v>
+      </c>
+      <c r="E6">
+        <v>164.88352690354679</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" ref="H6:H37" si="0">(4*PI()*E2)/((D2)^2)</f>
+        <v>0.28897005796884823</v>
+      </c>
+      <c r="I6" s="10">
+        <f>1/H6</f>
+        <v>3.4605661466414031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>223.61945294869</v>
+      </c>
+      <c r="D7">
+        <v>92.659363822801453</v>
+      </c>
+      <c r="E7">
+        <v>223.6194529486979</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.26964438533955726</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" ref="I7:I50" si="1">1/H7</f>
+        <v>3.7085882531569196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>566.88550972842006</v>
+      </c>
+      <c r="D8">
+        <v>144.716398964105</v>
+      </c>
+      <c r="E8">
+        <v>566.88550972839516</v>
+      </c>
+      <c r="G8" s="8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.18164855434509844</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="1"/>
+        <v>5.5051360227188271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>621.52898261920006</v>
+      </c>
+      <c r="D9">
+        <v>194.5630808757308</v>
+      </c>
+      <c r="E9">
+        <v>621.52898261907205</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30227116776006002</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="1"/>
+        <v>3.3082877451076991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>126.67532147243</v>
+      </c>
+      <c r="D10">
+        <v>62.392067391128307</v>
+      </c>
+      <c r="E10">
+        <v>126.6753214724618</v>
+      </c>
+      <c r="G10" s="8">
+        <v>5</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.28313811488227358</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="1"/>
+        <v>3.5318452283112483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>205.90030996915991</v>
+      </c>
+      <c r="D11">
+        <v>95.56167922005416</v>
+      </c>
+      <c r="E11">
+        <v>205.9003099692477</v>
+      </c>
+      <c r="G11" s="8">
+        <v>6</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.32729608954714118</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="1"/>
+        <v>3.0553374511245659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1939.4726099863001</v>
+      </c>
+      <c r="D12">
+        <v>333.43631250698081</v>
+      </c>
+      <c r="E12">
+        <v>1939.472609987738</v>
+      </c>
+      <c r="G12" s="8">
+        <v>7</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.3401494127744068</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="1"/>
+        <v>2.9398845402776512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1318.2369029377801</v>
+      </c>
+      <c r="D13">
+        <v>288.64743894961111</v>
+      </c>
+      <c r="E13">
+        <v>1318.236902937336</v>
+      </c>
+      <c r="G13" s="8">
+        <v>8</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.20632429977171304</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="1"/>
+        <v>4.8467388528954043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>902.46636479786025</v>
+      </c>
+      <c r="D14">
+        <v>234.1098976597562</v>
+      </c>
+      <c r="E14">
+        <v>902.46636479806307</v>
+      </c>
+      <c r="G14" s="8">
+        <v>9</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.40892449523755386</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="1"/>
+        <v>2.4454392232460336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1687.080664347789</v>
+      </c>
+      <c r="D15">
+        <v>275.03183688681912</v>
+      </c>
+      <c r="E15">
+        <v>1687.0806643472481</v>
+      </c>
+      <c r="G15" s="8">
+        <v>10</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.28333440863230175</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="1"/>
+        <v>3.5293983700290834</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>37.548119099009</v>
+      </c>
+      <c r="D16">
+        <v>37.491370751719018</v>
+      </c>
+      <c r="E16">
+        <v>37.548119098990853</v>
+      </c>
+      <c r="G16" s="8">
+        <v>11</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.21921371691473771</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="1"/>
+        <v>4.5617583337129677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>581.10026755145009</v>
+      </c>
+      <c r="D17">
+        <v>148.77784442518509</v>
+      </c>
+      <c r="E17">
+        <v>581.10026755115166</v>
+      </c>
+      <c r="G17" s="8">
+        <v>12</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19882359040893102</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="1"/>
+        <v>5.0295842557879924</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>782.74708270544988</v>
+      </c>
+      <c r="D18">
+        <v>220.33169163458021</v>
+      </c>
+      <c r="E18">
+        <v>782.74708270443932</v>
+      </c>
+      <c r="G18" s="8">
+        <v>13</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.20691946096469066</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="1"/>
+        <v>4.832798207272746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>158.28094122138</v>
+      </c>
+      <c r="D19">
+        <v>75.007417178246101</v>
+      </c>
+      <c r="E19">
+        <v>158.28094122141511</v>
+      </c>
+      <c r="G19" s="8">
+        <v>14</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="0"/>
+        <v>0.2802720390925445</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="1"/>
+        <v>3.5679620530030993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>132.07088302334</v>
+      </c>
+      <c r="D20">
+        <v>81.028733742648953</v>
+      </c>
+      <c r="E20">
+        <v>132.0708830232231</v>
+      </c>
+      <c r="G20" s="8">
+        <v>15</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="0"/>
+        <v>0.33568768739793842</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="1"/>
+        <v>2.9789594243132238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>41.566862611419999</v>
+      </c>
+      <c r="D21">
+        <v>39.568175575287562</v>
+      </c>
+      <c r="E21">
+        <v>41.566862611415551</v>
+      </c>
+      <c r="G21" s="8">
+        <v>16</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.3299015949310482</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="1"/>
+        <v>3.0312069276567368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>64.040059755200005</v>
+      </c>
+      <c r="D22">
+        <v>49.21063348217703</v>
+      </c>
+      <c r="E22">
+        <v>64.040059755136568</v>
+      </c>
+      <c r="G22" s="8">
+        <v>17</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="0"/>
+        <v>0.20261770132697191</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="1"/>
+        <v>4.9354029457982147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>38.144325751689998</v>
+      </c>
+      <c r="D23">
+        <v>43.698709001067343</v>
+      </c>
+      <c r="E23">
+        <v>38.144325751692598</v>
+      </c>
+      <c r="G23" s="8">
+        <v>18</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.35353308736705957</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="1"/>
+        <v>2.8285895598839357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>35.968715531020003</v>
+      </c>
+      <c r="D24">
+        <v>37.037665540785511</v>
+      </c>
+      <c r="E24">
+        <v>35.968715531015711</v>
+      </c>
+      <c r="G24" s="8">
+        <v>19</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.25277774853067925</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="1"/>
+        <v>3.9560444137694009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>53.606605782259997</v>
+      </c>
+      <c r="D25">
+        <v>54.333738829181023</v>
+      </c>
+      <c r="E25">
+        <v>53.606605782287673</v>
+      </c>
+      <c r="G25" s="8">
+        <v>20</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.33362997107370712</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="1"/>
+        <v>2.9973326340608506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>135.39235152849</v>
+      </c>
+      <c r="D26">
+        <v>84.44004875977565</v>
+      </c>
+      <c r="E26">
+        <v>135.3923515284842</v>
+      </c>
+      <c r="G26" s="8">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="0"/>
+        <v>0.33231020713163079</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>3.009236486088108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>112.86522401044</v>
+      </c>
+      <c r="D27">
+        <v>72.604057224307155</v>
+      </c>
+      <c r="E27">
+        <v>112.86522401035749</v>
+      </c>
+      <c r="G27" s="8">
+        <v>22</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="0"/>
+        <v>0.25101668692566642</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>3.9837988949958936</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>75.107381110900008</v>
+      </c>
+      <c r="D28">
+        <v>46.094106076326788</v>
+      </c>
+      <c r="E28">
+        <v>75.107381110890472</v>
+      </c>
+      <c r="G28" s="8">
+        <v>23</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="0"/>
+        <v>0.32949405414602839</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="1"/>
+        <v>3.034956131732836</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>418.10531202045001</v>
+      </c>
+      <c r="D29">
+        <v>118.22989361520391</v>
+      </c>
+      <c r="E29">
+        <v>418.10531202000749</v>
+      </c>
+      <c r="G29" s="8">
+        <v>24</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.22818599825197264</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="1"/>
+        <v>4.3823898383798188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>1105.9235151612399</v>
+      </c>
+      <c r="D30">
+        <v>271.09560663577201</v>
+      </c>
+      <c r="E30">
+        <v>1105.9235151612811</v>
+      </c>
+      <c r="G30" s="8">
+        <v>25</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="0"/>
+        <v>0.23862011156827942</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="1"/>
+        <v>4.1907615977032062</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>445.87850619019002</v>
+      </c>
+      <c r="D31">
+        <v>144.0931669274481</v>
+      </c>
+      <c r="E31">
+        <v>445.87850619037431</v>
+      </c>
+      <c r="G31" s="8">
+        <v>26</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="0"/>
+        <v>0.26905943822702127</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="1"/>
+        <v>3.7166508879582256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>59.628482514659993</v>
+      </c>
+      <c r="D32">
+        <v>39.765699563639117</v>
+      </c>
+      <c r="E32">
+        <v>59.628482514660163</v>
+      </c>
+      <c r="G32" s="8">
+        <v>27</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="0"/>
+        <v>0.44422366326124957</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="1"/>
+        <v>2.2511182602442688</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>197.9080034934</v>
+      </c>
+      <c r="D33">
+        <v>89.906989734619074</v>
+      </c>
+      <c r="E33">
+        <v>197.90800349337019</v>
+      </c>
+      <c r="G33" s="8">
+        <v>28</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="0"/>
+        <v>0.37587284546888666</v>
+      </c>
+      <c r="I33" s="10">
+        <f t="shared" si="1"/>
+        <v>2.660474179113788</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>679.10492850860987</v>
+      </c>
+      <c r="D34">
+        <v>138.29927663904201</v>
+      </c>
+      <c r="E34">
+        <v>679.10492850852529</v>
+      </c>
+      <c r="G34" s="8">
+        <v>29</v>
+      </c>
+      <c r="H34" s="9">
+        <f t="shared" si="0"/>
+        <v>0.18909933326451531</v>
+      </c>
+      <c r="I34" s="10">
+        <f t="shared" si="1"/>
+        <v>5.2882259431405991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>126.56928700381999</v>
+      </c>
+      <c r="D35">
+        <v>83.099726296412484</v>
+      </c>
+      <c r="E35">
+        <v>126.56928700385239</v>
+      </c>
+      <c r="G35" s="8">
+        <v>30</v>
+      </c>
+      <c r="H35" s="9">
+        <f t="shared" si="0"/>
+        <v>0.26986069121427053</v>
+      </c>
+      <c r="I35" s="10">
+        <f t="shared" si="1"/>
+        <v>3.7056156474675142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>234.47081404035001</v>
+      </c>
+      <c r="D36">
+        <v>94.581137844169845</v>
+      </c>
+      <c r="E36">
+        <v>234.47081404030999</v>
+      </c>
+      <c r="G36" s="8">
+        <v>31</v>
+      </c>
+      <c r="H36" s="9">
+        <f t="shared" si="0"/>
+        <v>0.47385598148926522</v>
+      </c>
+      <c r="I36" s="10">
+        <f t="shared" si="1"/>
+        <v>2.1103458414878196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>165.86477727184001</v>
+      </c>
+      <c r="D37">
+        <v>93.237695206946697</v>
+      </c>
+      <c r="E37">
+        <v>165.8647772718794</v>
+      </c>
+      <c r="G37" s="8">
+        <v>32</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30767081923848122</v>
+      </c>
+      <c r="I37" s="10">
+        <f t="shared" si="1"/>
+        <v>3.2502269876457861</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>121.51621972213</v>
+      </c>
+      <c r="D38">
+        <v>72.931433919805926</v>
+      </c>
+      <c r="E38">
+        <v>121.5162197221634</v>
+      </c>
+      <c r="G38" s="8">
+        <v>33</v>
+      </c>
+      <c r="H38" s="9">
+        <f t="shared" ref="H38:H69" si="2">(4*PI()*E34)/((D34)^2)</f>
+        <v>0.44617674327700529</v>
+      </c>
+      <c r="I38" s="10">
+        <f t="shared" si="1"/>
+        <v>2.2412642861108472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>432.61422313949993</v>
+      </c>
+      <c r="D39">
+        <v>124.092450170379</v>
+      </c>
+      <c r="E39">
+        <v>432.61422313952983</v>
+      </c>
+      <c r="G39" s="8">
+        <v>34</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" si="2"/>
+        <v>0.23032390276831036</v>
+      </c>
+      <c r="I39" s="10">
+        <f t="shared" si="1"/>
+        <v>4.3417117719038032</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>1216.2150304500999</v>
+      </c>
+      <c r="D40">
+        <v>238.1562834867475</v>
+      </c>
+      <c r="E40">
+        <v>1216.215030450697</v>
+      </c>
+      <c r="G40" s="8">
+        <v>35</v>
+      </c>
+      <c r="H40" s="9">
+        <f t="shared" si="2"/>
+        <v>0.32937420658206634</v>
+      </c>
+      <c r="I40" s="10">
+        <f t="shared" si="1"/>
+        <v>3.0360604443713219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>542.01016460545998</v>
+      </c>
+      <c r="D41">
+        <v>176.63119576136339</v>
+      </c>
+      <c r="E41">
+        <v>542.01016460497874</v>
+      </c>
+      <c r="G41" s="8">
+        <v>36</v>
+      </c>
+      <c r="H41" s="9">
+        <f t="shared" si="2"/>
+        <v>0.23976234359966686</v>
+      </c>
+      <c r="I41" s="10">
+        <f t="shared" si="1"/>
+        <v>4.1707967355779108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>2100.6845537547401</v>
+      </c>
+      <c r="D42">
+        <v>320.13905498321861</v>
+      </c>
+      <c r="E42">
+        <v>2100.6845537533868</v>
+      </c>
+      <c r="G42" s="8">
+        <v>37</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" si="2"/>
+        <v>0.28708771570281655</v>
+      </c>
+      <c r="I42" s="10">
+        <f t="shared" si="1"/>
+        <v>3.483255971269652</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>1986.72922118464</v>
+      </c>
+      <c r="D43">
+        <v>328.7888680267107</v>
+      </c>
+      <c r="E43">
+        <v>1986.7292211858239</v>
+      </c>
+      <c r="G43" s="8">
+        <v>38</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="2"/>
+        <v>0.35303676787726035</v>
+      </c>
+      <c r="I43" s="10">
+        <f t="shared" si="1"/>
+        <v>2.8325661545475858</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>1452.47584485724</v>
+      </c>
+      <c r="D44">
+        <v>298.34582690690797</v>
+      </c>
+      <c r="E44">
+        <v>1452.475844858104</v>
+      </c>
+      <c r="G44" s="8">
+        <v>39</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="2"/>
+        <v>0.26946113923060855</v>
+      </c>
+      <c r="I44" s="10">
+        <f t="shared" si="1"/>
+        <v>3.7111102656779993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>754.5114741269299</v>
+      </c>
+      <c r="D45">
+        <v>217.5785933196079</v>
+      </c>
+      <c r="E45">
+        <v>754.51147412675346</v>
+      </c>
+      <c r="G45" s="8">
+        <v>40</v>
+      </c>
+      <c r="H45" s="9">
+        <f t="shared" si="2"/>
+        <v>0.21831444746791742</v>
+      </c>
+      <c r="I45" s="10">
+        <f t="shared" si="1"/>
+        <v>4.5805488899077824</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>83.774203633959999</v>
+      </c>
+      <c r="D46">
+        <v>60.283455111371858</v>
+      </c>
+      <c r="E46">
+        <v>83.774203613528229</v>
+      </c>
+      <c r="G46" s="8">
+        <v>41</v>
+      </c>
+      <c r="H46" s="9">
+        <f t="shared" si="2"/>
+        <v>0.2575688796358202</v>
+      </c>
+      <c r="I46" s="10">
+        <f t="shared" si="1"/>
+        <v>3.8824566128249356</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>56.110176050089997</v>
+      </c>
+      <c r="D47">
+        <v>61.061541647280087</v>
+      </c>
+      <c r="E47">
+        <v>56.110176050087183</v>
+      </c>
+      <c r="G47" s="8">
+        <v>42</v>
+      </c>
+      <c r="H47" s="9">
+        <f t="shared" si="2"/>
+        <v>0.230948068032714</v>
+      </c>
+      <c r="I47" s="10">
+        <f t="shared" si="1"/>
+        <v>4.3299777673756035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>207.51689132811001</v>
+      </c>
+      <c r="D48">
+        <v>119.06357718058101</v>
+      </c>
+      <c r="E48">
+        <v>207.51689132811109</v>
+      </c>
+      <c r="G48" s="8">
+        <v>43</v>
+      </c>
+      <c r="H48" s="9">
+        <f t="shared" si="2"/>
+        <v>0.20505900586966996</v>
+      </c>
+      <c r="I48" s="10">
+        <f t="shared" si="1"/>
+        <v>4.876645118603439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>55.111595325419998</v>
+      </c>
+      <c r="D49">
+        <v>51.448569975673692</v>
+      </c>
+      <c r="E49">
+        <v>55.111595325419053</v>
+      </c>
+      <c r="G49" s="8">
+        <v>44</v>
+      </c>
+      <c r="H49" s="9">
+        <f t="shared" si="2"/>
+        <v>0.20028267505050865</v>
+      </c>
+      <c r="I49" s="10">
+        <f t="shared" si="1"/>
+        <v>4.9929430977882294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>295.20110104386009</v>
+      </c>
+      <c r="D50">
+        <v>122.53821435979501</v>
+      </c>
+      <c r="E50">
+        <v>295.20110104385247</v>
+      </c>
+      <c r="G50" s="8">
+        <v>45</v>
+      </c>
+      <c r="H50" s="9">
+        <f t="shared" si="2"/>
+        <v>0.28968359442171743</v>
+      </c>
+      <c r="I50" s="10">
+        <f t="shared" si="1"/>
+        <v>3.4520422255746164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>135.03629301473001</v>
+      </c>
+      <c r="D51">
+        <v>70.922480005147946</v>
+      </c>
+      <c r="E51">
+        <v>135.0362930146587</v>
+      </c>
+      <c r="G51" s="8">
+        <v>46</v>
+      </c>
+      <c r="H51" s="9">
+        <f t="shared" si="2"/>
+        <v>0.18911064048611501</v>
+      </c>
+      <c r="I51" s="10">
+        <f>1/H51</f>
+        <v>5.2879097518228892</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>1241.70166325786</v>
+      </c>
+      <c r="D52">
+        <v>233.7676661720198</v>
+      </c>
+      <c r="E52">
+        <v>1241.7016632578921</v>
+      </c>
+      <c r="G52" s="8">
+        <v>47</v>
+      </c>
+      <c r="H52" s="9">
+        <f t="shared" si="2"/>
+        <v>0.18395240236902727</v>
+      </c>
+      <c r="I52" s="10">
+        <f t="shared" ref="I52:I115" si="3">1/H52</f>
+        <v>5.43618885712565</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>935.43983613913974</v>
+      </c>
+      <c r="D53">
+        <v>183.98960544064681</v>
+      </c>
+      <c r="E53">
+        <v>935.43983613932642</v>
+      </c>
+      <c r="G53" s="8">
+        <v>48</v>
+      </c>
+      <c r="H53" s="9">
+        <f t="shared" si="2"/>
+        <v>0.26164125939742905</v>
+      </c>
+      <c r="I53" s="10">
+        <f t="shared" si="3"/>
+        <v>3.8220271615533519</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>1780.0810123274</v>
+      </c>
+      <c r="D54">
+        <v>230.07015255197561</v>
+      </c>
+      <c r="E54">
+        <v>1780.0810123275969</v>
+      </c>
+      <c r="G54" s="8">
+        <v>49</v>
+      </c>
+      <c r="H54" s="9">
+        <f t="shared" si="2"/>
+        <v>0.24704993394200919</v>
+      </c>
+      <c r="I54" s="10">
+        <f t="shared" si="3"/>
+        <v>4.0477646929253304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>1569.771718531063</v>
+      </c>
+      <c r="D55">
+        <v>287.45653956703239</v>
+      </c>
+      <c r="E55">
+        <v>1569.7717185314209</v>
+      </c>
+      <c r="G55" s="8">
+        <v>50</v>
+      </c>
+      <c r="H55" s="9">
+        <f t="shared" si="2"/>
+        <v>0.33735918921501462</v>
+      </c>
+      <c r="I55" s="10">
+        <f t="shared" si="3"/>
+        <v>2.9641996778770232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>2023.7488203023299</v>
+      </c>
+      <c r="D56">
+        <v>349.10465986237801</v>
+      </c>
+      <c r="E56">
+        <v>2023.7488203003111</v>
+      </c>
+      <c r="G56" s="8">
+        <v>51</v>
+      </c>
+      <c r="H56" s="9">
+        <f t="shared" si="2"/>
+        <v>0.28553427311696272</v>
+      </c>
+      <c r="I56" s="10">
+        <f t="shared" si="3"/>
+        <v>3.5022065445375534</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>448.86374699638992</v>
+      </c>
+      <c r="D57">
+        <v>161.71941514512019</v>
+      </c>
+      <c r="E57">
+        <v>448.86374699646223</v>
+      </c>
+      <c r="G57" s="8">
+        <v>52</v>
+      </c>
+      <c r="H57" s="9">
+        <f t="shared" si="2"/>
+        <v>0.34724751657887032</v>
+      </c>
+      <c r="I57" s="10">
+        <f t="shared" si="3"/>
+        <v>2.8797902137706721</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>1675.9408845875489</v>
+      </c>
+      <c r="D58">
+        <v>285.83401082690699</v>
+      </c>
+      <c r="E58">
+        <v>1675.940884584727</v>
+      </c>
+      <c r="G58" s="8">
+        <v>53</v>
+      </c>
+      <c r="H58" s="9">
+        <f t="shared" si="2"/>
+        <v>0.42259958946074033</v>
+      </c>
+      <c r="I58" s="10">
+        <f t="shared" si="3"/>
+        <v>2.3663061321854415</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>186.32643743711</v>
+      </c>
+      <c r="D59">
+        <v>107.2139278843767</v>
+      </c>
+      <c r="E59">
+        <v>186.32643743710781</v>
+      </c>
+      <c r="G59" s="8">
+        <v>54</v>
+      </c>
+      <c r="H59" s="9">
+        <f t="shared" si="2"/>
+        <v>0.23872724056445682</v>
+      </c>
+      <c r="I59" s="10">
+        <f t="shared" si="3"/>
+        <v>4.1888809908561653</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>666.26964757899998</v>
+      </c>
+      <c r="D60">
+        <v>201.92148499412659</v>
+      </c>
+      <c r="E60">
+        <v>666.26964757921075</v>
+      </c>
+      <c r="G60" s="8">
+        <v>55</v>
+      </c>
+      <c r="H60" s="9">
+        <f t="shared" si="2"/>
+        <v>0.20866767684671814</v>
+      </c>
+      <c r="I60" s="10">
+        <f t="shared" si="3"/>
+        <v>4.7923090682347222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>745.40159142239997</v>
+      </c>
+      <c r="D61">
+        <v>174.50329352007981</v>
+      </c>
+      <c r="E61">
+        <v>745.40159142253231</v>
+      </c>
+      <c r="G61" s="8">
+        <v>56</v>
+      </c>
+      <c r="H61" s="9">
+        <f t="shared" si="2"/>
+        <v>0.21567513097360311</v>
+      </c>
+      <c r="I61" s="10">
+        <f t="shared" si="3"/>
+        <v>4.6366031887208727</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>140.26131345034</v>
+      </c>
+      <c r="D62">
+        <v>81.848881080916627</v>
+      </c>
+      <c r="E62">
+        <v>140.26131345041011</v>
+      </c>
+      <c r="G62" s="8">
+        <v>57</v>
+      </c>
+      <c r="H62" s="9">
+        <f t="shared" si="2"/>
+        <v>0.25777497474365241</v>
+      </c>
+      <c r="I62" s="10">
+        <f t="shared" si="3"/>
+        <v>3.8793525282834871</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>59.782238193700003</v>
+      </c>
+      <c r="D63">
+        <v>61.398651125743811</v>
+      </c>
+      <c r="E63">
+        <v>59.782238193676783</v>
+      </c>
+      <c r="G63" s="8">
+        <v>58</v>
+      </c>
+      <c r="H63" s="9">
+        <f t="shared" si="2"/>
+        <v>0.20369573235646987</v>
+      </c>
+      <c r="I63" s="10">
+        <f t="shared" si="3"/>
+        <v>4.9092830194890311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>97.26421430297998</v>
+      </c>
+      <c r="D64">
+        <v>51.676472805137358</v>
+      </c>
+      <c r="E64">
+        <v>97.264214303001097</v>
+      </c>
+      <c r="G64" s="8">
+        <v>59</v>
+      </c>
+      <c r="H64" s="9">
+        <f t="shared" si="2"/>
+        <v>0.2053500581150938</v>
+      </c>
+      <c r="I64" s="10">
+        <f t="shared" si="3"/>
+        <v>4.8697332213050748</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>2315.0517444155998</v>
+      </c>
+      <c r="D65">
+        <v>286.41390656646081</v>
+      </c>
+      <c r="E65">
+        <v>2315.051744416231</v>
+      </c>
+      <c r="G65" s="8">
+        <v>60</v>
+      </c>
+      <c r="H65" s="9">
+        <f t="shared" si="2"/>
+        <v>0.30760466920173146</v>
+      </c>
+      <c r="I65" s="10">
+        <f t="shared" si="3"/>
+        <v>3.2509259452891657</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>778.6613808341599</v>
+      </c>
+      <c r="D66">
+        <v>166.86750229524719</v>
+      </c>
+      <c r="E66">
+        <v>778.66138083415967</v>
+      </c>
+      <c r="G66" s="8">
+        <v>61</v>
+      </c>
+      <c r="H66" s="9">
+        <f t="shared" si="2"/>
+        <v>0.2631008626124347</v>
+      </c>
+      <c r="I66" s="10">
+        <f t="shared" si="3"/>
+        <v>3.8008237223952679</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>2123.6945297612401</v>
+      </c>
+      <c r="D67">
+        <v>379.06305914659191</v>
+      </c>
+      <c r="E67">
+        <v>2123.6945297619968</v>
+      </c>
+      <c r="G67" s="8">
+        <v>62</v>
+      </c>
+      <c r="H67" s="9">
+        <f t="shared" si="2"/>
+        <v>0.19928030272864111</v>
+      </c>
+      <c r="I67" s="10">
+        <f t="shared" si="3"/>
+        <v>5.0180574111315686</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>174.74033447887001</v>
+      </c>
+      <c r="D68">
+        <v>81.15127414475829</v>
+      </c>
+      <c r="E68">
+        <v>174.74033447879791</v>
+      </c>
+      <c r="G68" s="8">
+        <v>63</v>
+      </c>
+      <c r="H68" s="9">
+        <f t="shared" si="2"/>
+        <v>0.45769610941424183</v>
+      </c>
+      <c r="I68" s="10">
+        <f t="shared" si="3"/>
+        <v>2.1848558015487551</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>90.933313166950001</v>
+      </c>
+      <c r="D69">
+        <v>65.81373282825578</v>
+      </c>
+      <c r="E69">
+        <v>90.93331316693974</v>
+      </c>
+      <c r="G69" s="8">
+        <v>64</v>
+      </c>
+      <c r="H69" s="9">
+        <f t="shared" si="2"/>
+        <v>0.35463562833541518</v>
+      </c>
+      <c r="I69" s="10">
+        <f t="shared" si="3"/>
+        <v>2.8197956440355108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>82.939253886699987</v>
+      </c>
+      <c r="D70">
+        <v>61.97442138749291</v>
+      </c>
+      <c r="E70">
+        <v>82.939253886742364</v>
+      </c>
+      <c r="G70" s="8">
+        <v>65</v>
+      </c>
+      <c r="H70" s="9">
+        <f t="shared" ref="H70:H101" si="4">(4*PI()*E66)/((D66)^2)</f>
+        <v>0.35141069009662984</v>
+      </c>
+      <c r="I70" s="10">
+        <f t="shared" si="3"/>
+        <v>2.8456732483722194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>1643.4777401952399</v>
+      </c>
+      <c r="D71">
+        <v>353.95257590948341</v>
+      </c>
+      <c r="E71">
+        <v>1643.4777401947381</v>
+      </c>
+      <c r="G71" s="8">
+        <v>66</v>
+      </c>
+      <c r="H71" s="9">
+        <f t="shared" si="4"/>
+        <v>0.18572868595783557</v>
+      </c>
+      <c r="I71" s="10">
+        <f t="shared" si="3"/>
+        <v>5.3841978951330205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>180.49388974991001</v>
+      </c>
+      <c r="D72">
+        <v>63.626863547504392</v>
+      </c>
+      <c r="E72">
+        <v>180.49388974991879</v>
+      </c>
+      <c r="G72" s="8">
+        <v>67</v>
+      </c>
+      <c r="H72" s="9">
+        <f t="shared" si="4"/>
+        <v>0.33343588736275165</v>
+      </c>
+      <c r="I72" s="10">
+        <f t="shared" si="3"/>
+        <v>2.9990772976157776</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>51.777582245024988</v>
+      </c>
+      <c r="D73">
+        <v>42.726269763382753</v>
+      </c>
+      <c r="E73">
+        <v>51.777582245019381</v>
+      </c>
+      <c r="G73" s="8">
+        <v>68</v>
+      </c>
+      <c r="H73" s="9">
+        <f t="shared" si="4"/>
+        <v>0.2638152103272377</v>
+      </c>
+      <c r="I73" s="10">
+        <f t="shared" si="3"/>
+        <v>3.7905320120079318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>285.58717659689</v>
+      </c>
+      <c r="D74">
+        <v>119.4913965820799</v>
+      </c>
+      <c r="E74">
+        <v>285.58717659700682</v>
+      </c>
+      <c r="G74" s="8">
+        <v>69</v>
+      </c>
+      <c r="H74" s="9">
+        <f t="shared" si="4"/>
+        <v>0.27135949771303897</v>
+      </c>
+      <c r="I74" s="10">
+        <f t="shared" si="3"/>
+        <v>3.6851483306381043</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>42.410016158791997</v>
+      </c>
+      <c r="D75">
+        <v>44.134938955984737</v>
+      </c>
+      <c r="E75">
+        <v>42.410016158779811</v>
+      </c>
+      <c r="G75" s="8">
+        <v>70</v>
+      </c>
+      <c r="H75" s="9">
+        <f t="shared" si="4"/>
+        <v>0.16484794428308192</v>
+      </c>
+      <c r="I75" s="10">
+        <f t="shared" si="3"/>
+        <v>6.0661963626478075</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>358.41049026981</v>
+      </c>
+      <c r="D76">
+        <v>87.310128654411244</v>
+      </c>
+      <c r="E76">
+        <v>358.41049026999718</v>
+      </c>
+      <c r="G76" s="8">
+        <v>71</v>
+      </c>
+      <c r="H76" s="9">
+        <f t="shared" si="4"/>
+        <v>0.56026221957200573</v>
+      </c>
+      <c r="I76" s="10">
+        <f t="shared" si="3"/>
+        <v>1.7848785177125057</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>91.813998336449998</v>
+      </c>
+      <c r="D77">
+        <v>61.849566143634853</v>
+      </c>
+      <c r="E77">
+        <v>91.813998336416077</v>
+      </c>
+      <c r="G77" s="8">
+        <v>72</v>
+      </c>
+      <c r="H77" s="9">
+        <f t="shared" si="4"/>
+        <v>0.3564196790761871</v>
+      </c>
+      <c r="I77" s="10">
+        <f t="shared" si="3"/>
+        <v>2.8056812199369139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>91.350499827540006</v>
+      </c>
+      <c r="D78">
+        <v>65.106888032079866</v>
+      </c>
+      <c r="E78">
+        <v>91.350499827516515</v>
+      </c>
+      <c r="G78" s="8">
+        <v>73</v>
+      </c>
+      <c r="H78" s="9">
+        <f t="shared" si="4"/>
+        <v>0.25134791835263093</v>
+      </c>
+      <c r="I78" s="10">
+        <f t="shared" si="3"/>
+        <v>3.9785489633418827</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>49.80903065663</v>
+      </c>
+      <c r="D79">
+        <v>46.554045455901637</v>
+      </c>
+      <c r="E79">
+        <v>49.809030656666224</v>
+      </c>
+      <c r="G79" s="8">
+        <v>74</v>
+      </c>
+      <c r="H79" s="9">
+        <f t="shared" si="4"/>
+        <v>0.27359820354858583</v>
+      </c>
+      <c r="I79" s="10">
+        <f t="shared" si="3"/>
+        <v>3.6549947588468688</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>121.51803415776</v>
+      </c>
+      <c r="D80">
+        <v>64.403860691333364</v>
+      </c>
+      <c r="E80">
+        <v>121.518034157714</v>
+      </c>
+      <c r="G80" s="8">
+        <v>75</v>
+      </c>
+      <c r="H80" s="9">
+        <f t="shared" si="4"/>
+        <v>0.59082834193377487</v>
+      </c>
+      <c r="I80" s="10">
+        <f t="shared" si="3"/>
+        <v>1.692538981334258</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>1520.4017251565199</v>
+      </c>
+      <c r="D81">
+        <v>285.71929600414938</v>
+      </c>
+      <c r="E81">
+        <v>1520.4017251555349</v>
+      </c>
+      <c r="G81" s="8">
+        <v>76</v>
+      </c>
+      <c r="H81" s="9">
+        <f t="shared" si="4"/>
+        <v>0.30160980059832082</v>
+      </c>
+      <c r="I81" s="10">
+        <f t="shared" si="3"/>
+        <v>3.3155421276637633</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>586.73631955224971</v>
+      </c>
+      <c r="D82">
+        <v>152.74034066280811</v>
+      </c>
+      <c r="E82">
+        <v>586.73631955223709</v>
+      </c>
+      <c r="G82" s="8">
+        <v>77</v>
+      </c>
+      <c r="H82" s="9">
+        <f t="shared" si="4"/>
+        <v>0.27081138417421186</v>
+      </c>
+      <c r="I82" s="10">
+        <f t="shared" si="3"/>
+        <v>3.6926069524341121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>1634.7227932298899</v>
+      </c>
+      <c r="D83">
+        <v>303.38880259276908</v>
+      </c>
+      <c r="E83">
+        <v>1634.722793229392</v>
+      </c>
+      <c r="G83" s="8">
+        <v>78</v>
+      </c>
+      <c r="H83" s="9">
+        <f t="shared" si="4"/>
+        <v>0.28880393172318353</v>
+      </c>
+      <c r="I83" s="10">
+        <f t="shared" si="3"/>
+        <v>3.4625567388690981</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>289.03892062745001</v>
+      </c>
+      <c r="D84">
+        <v>102.7578360409762</v>
+      </c>
+      <c r="E84">
+        <v>289.03892062748992</v>
+      </c>
+      <c r="G84" s="8">
+        <v>79</v>
+      </c>
+      <c r="H84" s="9">
+        <f t="shared" si="4"/>
+        <v>0.36815168734983578</v>
+      </c>
+      <c r="I84" s="10">
+        <f t="shared" si="3"/>
+        <v>2.7162716737727486</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>445.13251133985</v>
+      </c>
+      <c r="D85">
+        <v>197.32517117255381</v>
+      </c>
+      <c r="E85">
+        <v>445.13251133992662</v>
+      </c>
+      <c r="G85" s="8">
+        <v>80</v>
+      </c>
+      <c r="H85" s="9">
+        <f t="shared" si="4"/>
+        <v>0.23403945331196568</v>
+      </c>
+      <c r="I85" s="10">
+        <f t="shared" si="3"/>
+        <v>4.2727838654922765</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>159.588859481078</v>
+      </c>
+      <c r="D86">
+        <v>97.284947635389031</v>
+      </c>
+      <c r="E86">
+        <v>159.5888594810198</v>
+      </c>
+      <c r="G86" s="8">
+        <v>81</v>
+      </c>
+      <c r="H86" s="9">
+        <f t="shared" si="4"/>
+        <v>0.3160423821031742</v>
+      </c>
+      <c r="I86" s="10">
+        <f t="shared" si="3"/>
+        <v>3.1641325867286469</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>1838.6070319456801</v>
+      </c>
+      <c r="D87">
+        <v>233.90960664772291</v>
+      </c>
+      <c r="E87">
+        <v>1838.6070319438929</v>
+      </c>
+      <c r="G87" s="8">
+        <v>82</v>
+      </c>
+      <c r="H87" s="9">
+        <f t="shared" si="4"/>
+        <v>0.22317980116783148</v>
+      </c>
+      <c r="I87" s="10">
+        <f t="shared" si="3"/>
+        <v>4.480692225583617</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>104.51382247878</v>
+      </c>
+      <c r="D88">
+        <v>77.857361365861991</v>
+      </c>
+      <c r="E88">
+        <v>104.5138224787528</v>
+      </c>
+      <c r="G88" s="8">
+        <v>83</v>
+      </c>
+      <c r="H88" s="9">
+        <f t="shared" si="4"/>
+        <v>0.34398245431205238</v>
+      </c>
+      <c r="I88" s="10">
+        <f t="shared" si="3"/>
+        <v>2.907125021826912</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>314.32394106244999</v>
+      </c>
+      <c r="D89">
+        <v>102.7509698229246</v>
+      </c>
+      <c r="E89">
+        <v>314.32394106249791</v>
+      </c>
+      <c r="G89" s="8">
+        <v>84</v>
+      </c>
+      <c r="H89" s="9">
+        <f t="shared" si="4"/>
+        <v>0.14365945112178866</v>
+      </c>
+      <c r="I89" s="10">
+        <f t="shared" si="3"/>
+        <v>6.9609064505769309</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>88.452807691670003</v>
+      </c>
+      <c r="D90">
+        <v>62.357110302070907</v>
+      </c>
+      <c r="E90">
+        <v>88.452807691641937</v>
+      </c>
+      <c r="G90" s="8">
+        <v>85</v>
+      </c>
+      <c r="H90" s="9">
+        <f t="shared" si="4"/>
+        <v>0.21189520839749007</v>
+      </c>
+      <c r="I90" s="10">
+        <f t="shared" si="3"/>
+        <v>4.7193138889866715</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>2423.6981229613498</v>
+      </c>
+      <c r="D91">
+        <v>297.45948739889008</v>
+      </c>
+      <c r="E91">
+        <v>2423.6981229623379</v>
+      </c>
+      <c r="G91" s="8">
+        <v>86</v>
+      </c>
+      <c r="H91" s="9">
+        <f t="shared" si="4"/>
+        <v>0.42228209120895371</v>
+      </c>
+      <c r="I91" s="10">
+        <f t="shared" si="3"/>
+        <v>2.3680852700551296</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>3535.95965673098</v>
+      </c>
+      <c r="D92">
+        <v>369.86752288895099</v>
+      </c>
+      <c r="E92">
+        <v>3535.9596567310709</v>
+      </c>
+      <c r="G92" s="8">
+        <v>87</v>
+      </c>
+      <c r="H92" s="9">
+        <f t="shared" si="4"/>
+        <v>0.21666274127323601</v>
+      </c>
+      <c r="I92" s="10">
+        <f t="shared" si="3"/>
+        <v>4.6154682347477909</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>502.89823506226998</v>
+      </c>
+      <c r="D93">
+        <v>229.74770553850931</v>
+      </c>
+      <c r="E93">
+        <v>502.89823506246972</v>
+      </c>
+      <c r="G93" s="8">
+        <v>88</v>
+      </c>
+      <c r="H93" s="9">
+        <f t="shared" si="4"/>
+        <v>0.37412391104761517</v>
+      </c>
+      <c r="I93" s="10">
+        <f t="shared" si="3"/>
+        <v>2.6729112213111899</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>988.82136838692008</v>
+      </c>
+      <c r="D94">
+        <v>246.89799648692161</v>
+      </c>
+      <c r="E94">
+        <v>988.82136838705287</v>
+      </c>
+      <c r="G94" s="8">
+        <v>89</v>
+      </c>
+      <c r="H94" s="9">
+        <f t="shared" si="4"/>
+        <v>0.28585745601062529</v>
+      </c>
+      <c r="I94" s="10">
+        <f t="shared" si="3"/>
+        <v>3.498247042270012</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>39.244641467148007</v>
+      </c>
+      <c r="D95">
+        <v>43.071836691833653</v>
+      </c>
+      <c r="E95">
+        <v>39.244641467156399</v>
+      </c>
+      <c r="G95" s="8">
+        <v>90</v>
+      </c>
+      <c r="H95" s="9">
+        <f t="shared" si="4"/>
+        <v>0.34421733678260402</v>
+      </c>
+      <c r="I95" s="10">
+        <f t="shared" si="3"/>
+        <v>2.9051412963303647</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>778.40104596589993</v>
+      </c>
+      <c r="D96">
+        <v>181.29945320650381</v>
+      </c>
+      <c r="E96">
+        <v>778.40104596610331</v>
+      </c>
+      <c r="G96" s="8">
+        <v>91</v>
+      </c>
+      <c r="H96" s="9">
+        <f t="shared" si="4"/>
+        <v>0.3248065420264406</v>
+      </c>
+      <c r="I96" s="10">
+        <f t="shared" si="3"/>
+        <v>3.0787557225943925</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>1282.370573959279</v>
+      </c>
+      <c r="D97">
+        <v>188.64508210537579</v>
+      </c>
+      <c r="E97">
+        <v>1282.3705739590271</v>
+      </c>
+      <c r="G97" s="8">
+        <v>92</v>
+      </c>
+      <c r="H97" s="9">
+        <f t="shared" si="4"/>
+        <v>0.11972576199844215</v>
+      </c>
+      <c r="I97" s="10">
+        <f t="shared" si="3"/>
+        <v>8.3524212609564508</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <v>286.49435610508999</v>
+      </c>
+      <c r="D98">
+        <v>125.31006173841909</v>
+      </c>
+      <c r="E98">
+        <v>286.49435610505037</v>
+      </c>
+      <c r="G98" s="8">
+        <v>93</v>
+      </c>
+      <c r="H98" s="9">
+        <f t="shared" si="4"/>
+        <v>0.20384148542285502</v>
+      </c>
+      <c r="I98" s="10">
+        <f t="shared" si="3"/>
+        <v>4.9057727278898575</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <v>38.239690650175987</v>
+      </c>
+      <c r="D99">
+        <v>41.754023519381271</v>
+      </c>
+      <c r="E99">
+        <v>38.239690650167397</v>
+      </c>
+      <c r="G99" s="8">
+        <v>94</v>
+      </c>
+      <c r="H99" s="9">
+        <f t="shared" si="4"/>
+        <v>0.26582966665044416</v>
+      </c>
+      <c r="I99" s="10">
+        <f t="shared" si="3"/>
+        <v>3.7618073731212314</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <v>202.54180245043</v>
+      </c>
+      <c r="D100">
+        <v>100.06435749580299</v>
+      </c>
+      <c r="E100">
+        <v>202.54180243557849</v>
+      </c>
+      <c r="G100" s="8">
+        <v>95</v>
+      </c>
+      <c r="H100" s="9">
+        <f t="shared" si="4"/>
+        <v>0.29759133818309502</v>
+      </c>
+      <c r="I100" s="10">
+        <f t="shared" si="3"/>
+        <v>3.3603128575763299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>1207.6552407557001</v>
+      </c>
+      <c r="D101">
+        <v>210.7217567266444</v>
+      </c>
+      <c r="E101">
+        <v>1207.6552407549991</v>
+      </c>
+      <c r="G101" s="8">
+        <v>96</v>
+      </c>
+      <c r="H101" s="9">
+        <f t="shared" si="4"/>
+        <v>0.45282712337259989</v>
+      </c>
+      <c r="I101" s="10">
+        <f t="shared" si="3"/>
+        <v>2.208348282126134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102">
+        <v>2882.2533893733498</v>
+      </c>
+      <c r="D102">
+        <v>383.19523220071392</v>
+      </c>
+      <c r="E102">
+        <v>2882.2533893737418</v>
+      </c>
+      <c r="G102" s="8">
+        <v>97</v>
+      </c>
+      <c r="H102" s="9">
+        <f t="shared" ref="H102:H129" si="5">(4*PI()*E98)/((D98)^2)</f>
+        <v>0.22927359828187363</v>
+      </c>
+      <c r="I102" s="10">
+        <f t="shared" si="3"/>
+        <v>4.3616011939175818</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103">
+        <v>2073.9130769703402</v>
+      </c>
+      <c r="D103">
+        <v>413.9331476569788</v>
+      </c>
+      <c r="E103">
+        <v>2073.9130769706931</v>
+      </c>
+      <c r="G103" s="8">
+        <v>98</v>
+      </c>
+      <c r="H103" s="9">
+        <f t="shared" si="5"/>
+        <v>0.27563068936065932</v>
+      </c>
+      <c r="I103" s="10">
+        <f t="shared" si="3"/>
+        <v>3.6280430249605207</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104">
+        <v>1951.64771172574</v>
+      </c>
+      <c r="D104">
+        <v>345.15147677183268</v>
+      </c>
+      <c r="E104">
+        <v>1951.647711726722</v>
+      </c>
+      <c r="G104" s="8">
+        <v>99</v>
+      </c>
+      <c r="H104" s="9">
+        <f t="shared" si="5"/>
+        <v>0.25419424404630209</v>
+      </c>
+      <c r="I104" s="10">
+        <f t="shared" si="3"/>
+        <v>3.9339993859886442</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105">
+        <v>233.55288339163999</v>
+      </c>
+      <c r="D105">
+        <v>81.048717898651731</v>
+      </c>
+      <c r="E105">
+        <v>233.55288339168069</v>
+      </c>
+      <c r="G105" s="8">
+        <v>100</v>
+      </c>
+      <c r="H105" s="9">
+        <f t="shared" si="5"/>
+        <v>0.34177010981057776</v>
+      </c>
+      <c r="I105" s="10">
+        <f t="shared" si="3"/>
+        <v>2.9259434084339286</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="C106">
+        <v>837.26528653465982</v>
+      </c>
+      <c r="D106">
+        <v>220.229864612754</v>
+      </c>
+      <c r="E106">
+        <v>837.26528651376782</v>
+      </c>
+      <c r="G106" s="8">
+        <v>101</v>
+      </c>
+      <c r="H106" s="9">
+        <f t="shared" si="5"/>
+        <v>0.24666176164323267</v>
+      </c>
+      <c r="I106" s="10">
+        <f t="shared" si="3"/>
+        <v>4.0541346714550057</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107">
+        <v>94.555169694880007</v>
+      </c>
+      <c r="D107">
+        <v>64.219669669994971</v>
+      </c>
+      <c r="E107">
+        <v>94.555169694810118</v>
+      </c>
+      <c r="G107" s="8">
+        <v>102</v>
+      </c>
+      <c r="H107" s="9">
+        <f t="shared" si="5"/>
+        <v>0.15210377827015067</v>
+      </c>
+      <c r="I107" s="10">
+        <f t="shared" si="3"/>
+        <v>6.5744586450962812</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108">
+        <v>169.74084111022</v>
+      </c>
+      <c r="D108">
+        <v>65.880779687196025</v>
+      </c>
+      <c r="E108">
+        <v>169.7408411101529</v>
+      </c>
+      <c r="G108" s="8">
+        <v>103</v>
+      </c>
+      <c r="H108" s="9">
+        <f t="shared" si="5"/>
+        <v>0.20586940954705604</v>
+      </c>
+      <c r="I108" s="10">
+        <f t="shared" si="3"/>
+        <v>4.8574482347821943</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109">
+        <v>1216.73706587684</v>
+      </c>
+      <c r="D109">
+        <v>251.41666996122029</v>
+      </c>
+      <c r="E109">
+        <v>1216.7370658771949</v>
+      </c>
+      <c r="G109" s="8">
+        <v>104</v>
+      </c>
+      <c r="H109" s="9">
+        <f t="shared" si="5"/>
+        <v>0.4467893362346908</v>
+      </c>
+      <c r="I109" s="10">
+        <f t="shared" si="3"/>
+        <v>2.2381912881526724</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="C110">
+        <v>62.402371293498</v>
+      </c>
+      <c r="D110">
+        <v>45.045711656554872</v>
+      </c>
+      <c r="E110">
+        <v>62.402371293463723</v>
+      </c>
+      <c r="G110" s="8">
+        <v>105</v>
+      </c>
+      <c r="H110" s="9">
+        <f t="shared" si="5"/>
+        <v>0.21693045436785119</v>
+      </c>
+      <c r="I110" s="10">
+        <f t="shared" si="3"/>
+        <v>4.6097723019760508</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111">
+        <v>81.814200145650986</v>
+      </c>
+      <c r="D111">
+        <v>57.558982279053247</v>
+      </c>
+      <c r="E111">
+        <v>81.814200145644449</v>
+      </c>
+      <c r="G111" s="8">
+        <v>106</v>
+      </c>
+      <c r="H111" s="9">
+        <f t="shared" si="5"/>
+        <v>0.28811044798025565</v>
+      </c>
+      <c r="I111" s="10">
+        <f t="shared" si="3"/>
+        <v>3.4708911357096306</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="C112">
+        <v>59.177593886051987</v>
+      </c>
+      <c r="D112">
+        <v>61.115820223874152</v>
+      </c>
+      <c r="E112">
+        <v>59.17759388610677</v>
+      </c>
+      <c r="G112" s="8">
+        <v>107</v>
+      </c>
+      <c r="H112" s="9">
+        <f t="shared" si="5"/>
+        <v>0.49144933671679047</v>
+      </c>
+      <c r="I112" s="10">
+        <f t="shared" si="3"/>
+        <v>2.034797740659632</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="C113">
+        <v>233.723548556917</v>
+      </c>
+      <c r="D113">
+        <v>91.799923224490911</v>
+      </c>
+      <c r="E113">
+        <v>233.723548556737</v>
+      </c>
+      <c r="G113" s="8">
+        <v>108</v>
+      </c>
+      <c r="H113" s="9">
+        <f t="shared" si="5"/>
+        <v>0.24189030532236966</v>
+      </c>
+      <c r="I113" s="10">
+        <f t="shared" si="3"/>
+        <v>4.1341053278976592</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="C114">
+        <v>41.477871069824992</v>
+      </c>
+      <c r="D114">
+        <v>51.946612537925191</v>
+      </c>
+      <c r="E114">
+        <v>41.477871069814327</v>
+      </c>
+      <c r="G114" s="8">
+        <v>109</v>
+      </c>
+      <c r="H114" s="9">
+        <f t="shared" si="5"/>
+        <v>0.38645955741694449</v>
+      </c>
+      <c r="I114" s="10">
+        <f t="shared" si="3"/>
+        <v>2.5875928821217311</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="C115">
+        <v>99.492851721270981</v>
+      </c>
+      <c r="D115">
+        <v>74.023205869048169</v>
+      </c>
+      <c r="E115">
+        <v>99.492851721331533</v>
+      </c>
+      <c r="G115" s="8">
+        <v>110</v>
+      </c>
+      <c r="H115" s="9">
+        <f t="shared" si="5"/>
+        <v>0.31032183884976861</v>
+      </c>
+      <c r="I115" s="10">
+        <f t="shared" si="3"/>
+        <v>3.2224609254268914</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="C116">
+        <v>264.74221903847098</v>
+      </c>
+      <c r="D116">
+        <v>70.21744528219098</v>
+      </c>
+      <c r="E116">
+        <v>264.74221903819819</v>
+      </c>
+      <c r="G116" s="8">
+        <v>111</v>
+      </c>
+      <c r="H116" s="9">
+        <f t="shared" si="5"/>
+        <v>0.19909478189923618</v>
+      </c>
+      <c r="I116" s="10">
+        <f t="shared" ref="I116:I129" si="6">1/H116</f>
+        <v>5.0227333456991845</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="C117">
+        <v>1026.8746340544999</v>
+      </c>
+      <c r="D117">
+        <v>189.08872106065479</v>
+      </c>
+      <c r="E117">
+        <v>1026.87463405523</v>
+      </c>
+      <c r="G117" s="8">
+        <v>112</v>
+      </c>
+      <c r="H117" s="9">
+        <f t="shared" si="5"/>
+        <v>0.3485199953006165</v>
+      </c>
+      <c r="I117" s="10">
+        <f t="shared" si="6"/>
+        <v>2.8692758334782149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118">
+        <v>71.496676727950003</v>
+      </c>
+      <c r="D118">
+        <v>76.658513834031382</v>
+      </c>
+      <c r="E118">
+        <v>71.496676727911563</v>
+      </c>
+      <c r="G118" s="8">
+        <v>113</v>
+      </c>
+      <c r="H118" s="9">
+        <f t="shared" si="5"/>
+        <v>0.19315762497605474</v>
+      </c>
+      <c r="I118" s="10">
+        <f t="shared" si="6"/>
+        <v>5.1771189468910039</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="C119">
+        <v>273.98611669076013</v>
+      </c>
+      <c r="D119">
+        <v>125.8139805676897</v>
+      </c>
+      <c r="E119">
+        <v>273.98611669038002</v>
+      </c>
+      <c r="G119" s="8">
+        <v>114</v>
+      </c>
+      <c r="H119" s="9">
+        <f t="shared" si="5"/>
+        <v>0.22817389869256879</v>
+      </c>
+      <c r="I119" s="10">
+        <f t="shared" si="6"/>
+        <v>4.3826222268628321</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="C120">
+        <v>353.05861258973101</v>
+      </c>
+      <c r="D120">
+        <v>141.68213465483279</v>
+      </c>
+      <c r="E120">
+        <v>353.05861259009828</v>
+      </c>
+      <c r="G120" s="8">
+        <v>115</v>
+      </c>
+      <c r="H120" s="9">
+        <f t="shared" si="5"/>
+        <v>0.67475019659022029</v>
+      </c>
+      <c r="I120" s="10">
+        <f t="shared" si="6"/>
+        <v>1.4820299498294267</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121">
+        <v>438.72038414295002</v>
+      </c>
+      <c r="D121">
+        <v>199.64271229289869</v>
+      </c>
+      <c r="E121">
+        <v>438.72038414298697</v>
+      </c>
+      <c r="G121" s="8">
+        <v>116</v>
+      </c>
+      <c r="H121" s="9">
+        <f t="shared" si="5"/>
+        <v>0.36090761135095389</v>
+      </c>
+      <c r="I121" s="10">
+        <f t="shared" si="6"/>
+        <v>2.7707922153727584</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="C122">
+        <v>2514.8298107126011</v>
+      </c>
+      <c r="D122">
+        <v>392.07593074849768</v>
+      </c>
+      <c r="E122">
+        <v>2514.829810712205</v>
+      </c>
+      <c r="G122" s="8">
+        <v>117</v>
+      </c>
+      <c r="H122" s="9">
+        <f t="shared" si="5"/>
+        <v>0.15288853838750743</v>
+      </c>
+      <c r="I122" s="10">
+        <f t="shared" si="6"/>
+        <v>6.5407126691565667</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123">
+        <v>3087.2010664107011</v>
+      </c>
+      <c r="D123">
+        <v>444.92980573985221</v>
+      </c>
+      <c r="E123">
+        <v>3087.2010664111021</v>
+      </c>
+      <c r="G123" s="8">
+        <v>118</v>
+      </c>
+      <c r="H123" s="9">
+        <f t="shared" si="5"/>
+        <v>0.21751069446688784</v>
+      </c>
+      <c r="I123" s="10">
+        <f t="shared" si="6"/>
+        <v>4.5974750917464995</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124">
+        <v>374.60471950499999</v>
+      </c>
+      <c r="D124">
+        <v>106.8025217512065</v>
+      </c>
+      <c r="E124">
+        <v>374.60471950509879</v>
+      </c>
+      <c r="G124" s="8">
+        <v>119</v>
+      </c>
+      <c r="H124" s="9">
+        <f t="shared" si="5"/>
+        <v>0.22101741299436131</v>
+      </c>
+      <c r="I124" s="10">
+        <f t="shared" si="6"/>
+        <v>4.5245303818007878</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="C125">
+        <v>352.14231286130001</v>
+      </c>
+      <c r="D125">
+        <v>123.1298037268766</v>
+      </c>
+      <c r="E125">
+        <v>352.14231286126301</v>
+      </c>
+      <c r="G125" s="8">
+        <v>120</v>
+      </c>
+      <c r="H125" s="9">
+        <f t="shared" si="5"/>
+        <v>0.13832183907246268</v>
+      </c>
+      <c r="I125" s="10">
+        <f t="shared" si="6"/>
+        <v>7.2295163707021697</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G126" s="8">
+        <v>121</v>
+      </c>
+      <c r="H126" s="9">
+        <f t="shared" si="5"/>
+        <v>0.20557869252976341</v>
+      </c>
+      <c r="I126" s="10">
+        <f t="shared" si="6"/>
+        <v>4.8643173458028555</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G127" s="8">
+        <v>122</v>
+      </c>
+      <c r="H127" s="9">
+        <f t="shared" si="5"/>
+        <v>0.19597098684598604</v>
+      </c>
+      <c r="I127" s="10">
+        <f t="shared" si="6"/>
+        <v>5.1027961643419282</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G128" s="8">
+        <v>123</v>
+      </c>
+      <c r="H128" s="9">
+        <f t="shared" si="5"/>
+        <v>0.4126863405201342</v>
+      </c>
+      <c r="I128" s="10">
+        <f t="shared" si="6"/>
+        <v>2.4231478045520913</v>
+      </c>
+    </row>
+    <row r="129" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G129" s="8">
+        <v>124</v>
+      </c>
+      <c r="H129" s="9">
+        <f t="shared" si="5"/>
+        <v>0.29187822867421986</v>
+      </c>
+      <c r="I129" s="10">
+        <f t="shared" si="6"/>
+        <v>3.4260862981875597</v>
+      </c>
+    </row>
+    <row r="130" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G130" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" s="40"/>
+      <c r="I130" s="43">
+        <f>SUM(I6:I129)</f>
+        <v>474.3763194188507</v>
+      </c>
+    </row>
+    <row r="131" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G131" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" s="42"/>
+      <c r="I131" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9972EE-25CA-46EA-B692-9CED88B2F13C}">
   <dimension ref="A1:L131"/>
   <sheetViews>
@@ -5651,6 +9288,337 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A0B2F6-92DA-4F22-8B5F-CA1884FADB34}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>7637.3218971330534</v>
+      </c>
+      <c r="D2">
+        <v>897.5504870638764</v>
+      </c>
+      <c r="E2">
+        <v>7637.3218971224933</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="40"/>
+      <c r="I2" s="45">
+        <f>SUM(D2:D8)</f>
+        <v>5846.277548295122</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>14195.218517740461</v>
+      </c>
+      <c r="D3">
+        <v>1035.036664940719</v>
+      </c>
+      <c r="E3">
+        <v>14195.21851773757</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="42"/>
+      <c r="I3" s="44"/>
+      <c r="K3" s="11">
+        <v>5780</v>
+      </c>
+      <c r="L3" s="12">
+        <f>(K3-I2)/I2</f>
+        <v>-1.1336709170513068E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>15152.547672907071</v>
+      </c>
+      <c r="D4">
+        <v>742.23900397553723</v>
+      </c>
+      <c r="E4">
+        <v>15152.54767290738</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="K4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3233.07205857296</v>
+      </c>
+      <c r="D5">
+        <v>413.8216274991193</v>
+      </c>
+      <c r="E5">
+        <v>3233.0720585717909</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="13">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="L5" s="14">
+        <f>(K5-I13)/I13</f>
+        <v>-0.1050247406056584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>11802.77313103477</v>
+      </c>
+      <c r="D6">
+        <v>733.80363196784981</v>
+      </c>
+      <c r="E6">
+        <v>11802.77313101471</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" ref="H6:H12" si="0">(4*PI()*E2)/((D2)^2)</f>
+        <v>0.11913330379112329</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" ref="I6:I12" si="1">1/H6</f>
+        <v>8.3939584329273913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>15884.4588699414</v>
+      </c>
+      <c r="D7">
+        <v>1239.3047902508961</v>
+      </c>
+      <c r="E7">
+        <v>15884.4588699429</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16651006007439603</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="1"/>
+        <v>6.0056431398391421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>15035.056655714339</v>
+      </c>
+      <c r="D8">
+        <v>784.52134259712398</v>
+      </c>
+      <c r="E8">
+        <v>15035.056655674771</v>
+      </c>
+      <c r="G8" s="8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.34562725193794769</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="1"/>
+        <v>2.8932903710368745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G9" s="8">
+        <v>4</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.23724598940116207</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="1"/>
+        <v>4.2150343722316341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G10" s="8">
+        <v>5</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.27544456627714337</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="1"/>
+        <v>3.6304945619941273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G11" s="8">
+        <v>6</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.12996488647062146</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="1"/>
+        <v>7.6943859772927965</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G12" s="8">
+        <v>7</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30697669581642206</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="1"/>
+        <v>3.2575762708646101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G13" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="43">
+        <f>SUM(I6:I12)</f>
+        <v>36.090383126186573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G14" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="42"/>
+      <c r="I14" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="G14:H14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17433A91-F32F-42C4-85BE-26E97DF95C2C}">
   <dimension ref="A1:L53"/>
   <sheetViews>
@@ -7074,7 +11042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01A0506-065C-4819-858A-053317F76929}">
   <dimension ref="A1:L53"/>
   <sheetViews>
@@ -8498,7 +12466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F033E63-6E42-407C-9BD2-2BFDC5CEE5F6}">
   <dimension ref="A1:L53"/>
   <sheetViews>
@@ -9920,7 +13888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD99BF2-EAFD-447C-ACBC-90F0940E7535}">
   <dimension ref="A1:L131"/>
   <sheetViews>
@@ -13526,3610 +17494,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E621A63A-E609-45E6-A266-FEFE205C7A04}">
-  <dimension ref="A1:L131"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1321.7655748471</v>
-      </c>
-      <c r="D2">
-        <v>239.74840565269119</v>
-      </c>
-      <c r="E2">
-        <v>1321.765574846884</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="45">
-        <f>SUM(D2:D125)</f>
-        <v>18966.706631981397</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>496.92382004112</v>
-      </c>
-      <c r="D3">
-        <v>152.17879775770609</v>
-      </c>
-      <c r="E3">
-        <v>496.92382004096203</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="44"/>
-      <c r="K3" s="11">
-        <v>19440</v>
-      </c>
-      <c r="L3" s="12">
-        <f>(K3-I2)/I2</f>
-        <v>2.4953903553321305E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>209.74952018331001</v>
-      </c>
-      <c r="D4">
-        <v>120.4590536897483</v>
-      </c>
-      <c r="E4">
-        <v>209.74952018337191</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-      <c r="K4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>917.08478372720992</v>
-      </c>
-      <c r="D5">
-        <v>195.2591138212222</v>
-      </c>
-      <c r="E5">
-        <v>917.08478372759089</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="13">
-        <v>485</v>
-      </c>
-      <c r="L5" s="14">
-        <f>(K5-I130)/I130</f>
-        <v>2.2395048290277577E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>164.88352690363999</v>
-      </c>
-      <c r="D6">
-        <v>85.544954209359176</v>
-      </c>
-      <c r="E6">
-        <v>164.88352690354679</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9">
-        <f t="shared" ref="H6:H37" si="0">(4*PI()*E2)/((D2)^2)</f>
-        <v>0.28897005796884823</v>
-      </c>
-      <c r="I6" s="10">
-        <f>1/H6</f>
-        <v>3.4605661466414031</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>223.61945294869</v>
-      </c>
-      <c r="D7">
-        <v>92.659363822801453</v>
-      </c>
-      <c r="E7">
-        <v>223.6194529486979</v>
-      </c>
-      <c r="G7" s="8">
-        <v>2</v>
-      </c>
-      <c r="H7" s="9">
-        <f t="shared" si="0"/>
-        <v>0.26964438533955726</v>
-      </c>
-      <c r="I7" s="10">
-        <f t="shared" ref="I7:I50" si="1">1/H7</f>
-        <v>3.7085882531569196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>566.88550972842006</v>
-      </c>
-      <c r="D8">
-        <v>144.716398964105</v>
-      </c>
-      <c r="E8">
-        <v>566.88550972839516</v>
-      </c>
-      <c r="G8" s="8">
-        <v>3</v>
-      </c>
-      <c r="H8" s="9">
-        <f t="shared" si="0"/>
-        <v>0.18164855434509844</v>
-      </c>
-      <c r="I8" s="10">
-        <f t="shared" si="1"/>
-        <v>5.5051360227188271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>621.52898261920006</v>
-      </c>
-      <c r="D9">
-        <v>194.5630808757308</v>
-      </c>
-      <c r="E9">
-        <v>621.52898261907205</v>
-      </c>
-      <c r="G9" s="8">
-        <v>4</v>
-      </c>
-      <c r="H9" s="9">
-        <f t="shared" si="0"/>
-        <v>0.30227116776006002</v>
-      </c>
-      <c r="I9" s="10">
-        <f t="shared" si="1"/>
-        <v>3.3082877451076991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>126.67532147243</v>
-      </c>
-      <c r="D10">
-        <v>62.392067391128307</v>
-      </c>
-      <c r="E10">
-        <v>126.6753214724618</v>
-      </c>
-      <c r="G10" s="8">
-        <v>5</v>
-      </c>
-      <c r="H10" s="9">
-        <f t="shared" si="0"/>
-        <v>0.28313811488227358</v>
-      </c>
-      <c r="I10" s="10">
-        <f t="shared" si="1"/>
-        <v>3.5318452283112483</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>205.90030996915991</v>
-      </c>
-      <c r="D11">
-        <v>95.56167922005416</v>
-      </c>
-      <c r="E11">
-        <v>205.9003099692477</v>
-      </c>
-      <c r="G11" s="8">
-        <v>6</v>
-      </c>
-      <c r="H11" s="9">
-        <f t="shared" si="0"/>
-        <v>0.32729608954714118</v>
-      </c>
-      <c r="I11" s="10">
-        <f t="shared" si="1"/>
-        <v>3.0553374511245659</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>1939.4726099863001</v>
-      </c>
-      <c r="D12">
-        <v>333.43631250698081</v>
-      </c>
-      <c r="E12">
-        <v>1939.472609987738</v>
-      </c>
-      <c r="G12" s="8">
-        <v>7</v>
-      </c>
-      <c r="H12" s="9">
-        <f t="shared" si="0"/>
-        <v>0.3401494127744068</v>
-      </c>
-      <c r="I12" s="10">
-        <f t="shared" si="1"/>
-        <v>2.9398845402776512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>1318.2369029377801</v>
-      </c>
-      <c r="D13">
-        <v>288.64743894961111</v>
-      </c>
-      <c r="E13">
-        <v>1318.236902937336</v>
-      </c>
-      <c r="G13" s="8">
-        <v>8</v>
-      </c>
-      <c r="H13" s="9">
-        <f t="shared" si="0"/>
-        <v>0.20632429977171304</v>
-      </c>
-      <c r="I13" s="10">
-        <f t="shared" si="1"/>
-        <v>4.8467388528954043</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>902.46636479786025</v>
-      </c>
-      <c r="D14">
-        <v>234.1098976597562</v>
-      </c>
-      <c r="E14">
-        <v>902.46636479806307</v>
-      </c>
-      <c r="G14" s="8">
-        <v>9</v>
-      </c>
-      <c r="H14" s="9">
-        <f t="shared" si="0"/>
-        <v>0.40892449523755386</v>
-      </c>
-      <c r="I14" s="10">
-        <f t="shared" si="1"/>
-        <v>2.4454392232460336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>1687.080664347789</v>
-      </c>
-      <c r="D15">
-        <v>275.03183688681912</v>
-      </c>
-      <c r="E15">
-        <v>1687.0806643472481</v>
-      </c>
-      <c r="G15" s="8">
-        <v>10</v>
-      </c>
-      <c r="H15" s="9">
-        <f t="shared" si="0"/>
-        <v>0.28333440863230175</v>
-      </c>
-      <c r="I15" s="10">
-        <f t="shared" si="1"/>
-        <v>3.5293983700290834</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>37.548119099009</v>
-      </c>
-      <c r="D16">
-        <v>37.491370751719018</v>
-      </c>
-      <c r="E16">
-        <v>37.548119098990853</v>
-      </c>
-      <c r="G16" s="8">
-        <v>11</v>
-      </c>
-      <c r="H16" s="9">
-        <f t="shared" si="0"/>
-        <v>0.21921371691473771</v>
-      </c>
-      <c r="I16" s="10">
-        <f t="shared" si="1"/>
-        <v>4.5617583337129677</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>581.10026755145009</v>
-      </c>
-      <c r="D17">
-        <v>148.77784442518509</v>
-      </c>
-      <c r="E17">
-        <v>581.10026755115166</v>
-      </c>
-      <c r="G17" s="8">
-        <v>12</v>
-      </c>
-      <c r="H17" s="9">
-        <f t="shared" si="0"/>
-        <v>0.19882359040893102</v>
-      </c>
-      <c r="I17" s="10">
-        <f t="shared" si="1"/>
-        <v>5.0295842557879924</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>782.74708270544988</v>
-      </c>
-      <c r="D18">
-        <v>220.33169163458021</v>
-      </c>
-      <c r="E18">
-        <v>782.74708270443932</v>
-      </c>
-      <c r="G18" s="8">
-        <v>13</v>
-      </c>
-      <c r="H18" s="9">
-        <f t="shared" si="0"/>
-        <v>0.20691946096469066</v>
-      </c>
-      <c r="I18" s="10">
-        <f t="shared" si="1"/>
-        <v>4.832798207272746</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>158.28094122138</v>
-      </c>
-      <c r="D19">
-        <v>75.007417178246101</v>
-      </c>
-      <c r="E19">
-        <v>158.28094122141511</v>
-      </c>
-      <c r="G19" s="8">
-        <v>14</v>
-      </c>
-      <c r="H19" s="9">
-        <f t="shared" si="0"/>
-        <v>0.2802720390925445</v>
-      </c>
-      <c r="I19" s="10">
-        <f t="shared" si="1"/>
-        <v>3.5679620530030993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>132.07088302334</v>
-      </c>
-      <c r="D20">
-        <v>81.028733742648953</v>
-      </c>
-      <c r="E20">
-        <v>132.0708830232231</v>
-      </c>
-      <c r="G20" s="8">
-        <v>15</v>
-      </c>
-      <c r="H20" s="9">
-        <f t="shared" si="0"/>
-        <v>0.33568768739793842</v>
-      </c>
-      <c r="I20" s="10">
-        <f t="shared" si="1"/>
-        <v>2.9789594243132238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>41.566862611419999</v>
-      </c>
-      <c r="D21">
-        <v>39.568175575287562</v>
-      </c>
-      <c r="E21">
-        <v>41.566862611415551</v>
-      </c>
-      <c r="G21" s="8">
-        <v>16</v>
-      </c>
-      <c r="H21" s="9">
-        <f t="shared" si="0"/>
-        <v>0.3299015949310482</v>
-      </c>
-      <c r="I21" s="10">
-        <f t="shared" si="1"/>
-        <v>3.0312069276567368</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>64.040059755200005</v>
-      </c>
-      <c r="D22">
-        <v>49.21063348217703</v>
-      </c>
-      <c r="E22">
-        <v>64.040059755136568</v>
-      </c>
-      <c r="G22" s="8">
-        <v>17</v>
-      </c>
-      <c r="H22" s="9">
-        <f t="shared" si="0"/>
-        <v>0.20261770132697191</v>
-      </c>
-      <c r="I22" s="10">
-        <f t="shared" si="1"/>
-        <v>4.9354029457982147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>38.144325751689998</v>
-      </c>
-      <c r="D23">
-        <v>43.698709001067343</v>
-      </c>
-      <c r="E23">
-        <v>38.144325751692598</v>
-      </c>
-      <c r="G23" s="8">
-        <v>18</v>
-      </c>
-      <c r="H23" s="9">
-        <f t="shared" si="0"/>
-        <v>0.35353308736705957</v>
-      </c>
-      <c r="I23" s="10">
-        <f t="shared" si="1"/>
-        <v>2.8285895598839357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>35.968715531020003</v>
-      </c>
-      <c r="D24">
-        <v>37.037665540785511</v>
-      </c>
-      <c r="E24">
-        <v>35.968715531015711</v>
-      </c>
-      <c r="G24" s="8">
-        <v>19</v>
-      </c>
-      <c r="H24" s="9">
-        <f t="shared" si="0"/>
-        <v>0.25277774853067925</v>
-      </c>
-      <c r="I24" s="10">
-        <f t="shared" si="1"/>
-        <v>3.9560444137694009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <v>53.606605782259997</v>
-      </c>
-      <c r="D25">
-        <v>54.333738829181023</v>
-      </c>
-      <c r="E25">
-        <v>53.606605782287673</v>
-      </c>
-      <c r="G25" s="8">
-        <v>20</v>
-      </c>
-      <c r="H25" s="9">
-        <f t="shared" si="0"/>
-        <v>0.33362997107370712</v>
-      </c>
-      <c r="I25" s="10">
-        <f t="shared" si="1"/>
-        <v>2.9973326340608506</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>135.39235152849</v>
-      </c>
-      <c r="D26">
-        <v>84.44004875977565</v>
-      </c>
-      <c r="E26">
-        <v>135.3923515284842</v>
-      </c>
-      <c r="G26" s="8">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9">
-        <f t="shared" si="0"/>
-        <v>0.33231020713163079</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="1"/>
-        <v>3.009236486088108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>112.86522401044</v>
-      </c>
-      <c r="D27">
-        <v>72.604057224307155</v>
-      </c>
-      <c r="E27">
-        <v>112.86522401035749</v>
-      </c>
-      <c r="G27" s="8">
-        <v>22</v>
-      </c>
-      <c r="H27" s="9">
-        <f t="shared" si="0"/>
-        <v>0.25101668692566642</v>
-      </c>
-      <c r="I27" s="10">
-        <f t="shared" si="1"/>
-        <v>3.9837988949958936</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>75.107381110900008</v>
-      </c>
-      <c r="D28">
-        <v>46.094106076326788</v>
-      </c>
-      <c r="E28">
-        <v>75.107381110890472</v>
-      </c>
-      <c r="G28" s="8">
-        <v>23</v>
-      </c>
-      <c r="H28" s="9">
-        <f t="shared" si="0"/>
-        <v>0.32949405414602839</v>
-      </c>
-      <c r="I28" s="10">
-        <f t="shared" si="1"/>
-        <v>3.034956131732836</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>418.10531202045001</v>
-      </c>
-      <c r="D29">
-        <v>118.22989361520391</v>
-      </c>
-      <c r="E29">
-        <v>418.10531202000749</v>
-      </c>
-      <c r="G29" s="8">
-        <v>24</v>
-      </c>
-      <c r="H29" s="9">
-        <f t="shared" si="0"/>
-        <v>0.22818599825197264</v>
-      </c>
-      <c r="I29" s="10">
-        <f t="shared" si="1"/>
-        <v>4.3823898383798188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>1105.9235151612399</v>
-      </c>
-      <c r="D30">
-        <v>271.09560663577201</v>
-      </c>
-      <c r="E30">
-        <v>1105.9235151612811</v>
-      </c>
-      <c r="G30" s="8">
-        <v>25</v>
-      </c>
-      <c r="H30" s="9">
-        <f t="shared" si="0"/>
-        <v>0.23862011156827942</v>
-      </c>
-      <c r="I30" s="10">
-        <f t="shared" si="1"/>
-        <v>4.1907615977032062</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>445.87850619019002</v>
-      </c>
-      <c r="D31">
-        <v>144.0931669274481</v>
-      </c>
-      <c r="E31">
-        <v>445.87850619037431</v>
-      </c>
-      <c r="G31" s="8">
-        <v>26</v>
-      </c>
-      <c r="H31" s="9">
-        <f t="shared" si="0"/>
-        <v>0.26905943822702127</v>
-      </c>
-      <c r="I31" s="10">
-        <f t="shared" si="1"/>
-        <v>3.7166508879582256</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <v>59.628482514659993</v>
-      </c>
-      <c r="D32">
-        <v>39.765699563639117</v>
-      </c>
-      <c r="E32">
-        <v>59.628482514660163</v>
-      </c>
-      <c r="G32" s="8">
-        <v>27</v>
-      </c>
-      <c r="H32" s="9">
-        <f t="shared" si="0"/>
-        <v>0.44422366326124957</v>
-      </c>
-      <c r="I32" s="10">
-        <f t="shared" si="1"/>
-        <v>2.2511182602442688</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>197.9080034934</v>
-      </c>
-      <c r="D33">
-        <v>89.906989734619074</v>
-      </c>
-      <c r="E33">
-        <v>197.90800349337019</v>
-      </c>
-      <c r="G33" s="8">
-        <v>28</v>
-      </c>
-      <c r="H33" s="9">
-        <f t="shared" si="0"/>
-        <v>0.37587284546888666</v>
-      </c>
-      <c r="I33" s="10">
-        <f t="shared" si="1"/>
-        <v>2.660474179113788</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>33</v>
-      </c>
-      <c r="C34">
-        <v>679.10492850860987</v>
-      </c>
-      <c r="D34">
-        <v>138.29927663904201</v>
-      </c>
-      <c r="E34">
-        <v>679.10492850852529</v>
-      </c>
-      <c r="G34" s="8">
-        <v>29</v>
-      </c>
-      <c r="H34" s="9">
-        <f t="shared" si="0"/>
-        <v>0.18909933326451531</v>
-      </c>
-      <c r="I34" s="10">
-        <f t="shared" si="1"/>
-        <v>5.2882259431405991</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>34</v>
-      </c>
-      <c r="C35">
-        <v>126.56928700381999</v>
-      </c>
-      <c r="D35">
-        <v>83.099726296412484</v>
-      </c>
-      <c r="E35">
-        <v>126.56928700385239</v>
-      </c>
-      <c r="G35" s="8">
-        <v>30</v>
-      </c>
-      <c r="H35" s="9">
-        <f t="shared" si="0"/>
-        <v>0.26986069121427053</v>
-      </c>
-      <c r="I35" s="10">
-        <f t="shared" si="1"/>
-        <v>3.7056156474675142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>35</v>
-      </c>
-      <c r="C36">
-        <v>234.47081404035001</v>
-      </c>
-      <c r="D36">
-        <v>94.581137844169845</v>
-      </c>
-      <c r="E36">
-        <v>234.47081404030999</v>
-      </c>
-      <c r="G36" s="8">
-        <v>31</v>
-      </c>
-      <c r="H36" s="9">
-        <f t="shared" si="0"/>
-        <v>0.47385598148926522</v>
-      </c>
-      <c r="I36" s="10">
-        <f t="shared" si="1"/>
-        <v>2.1103458414878196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>36</v>
-      </c>
-      <c r="C37">
-        <v>165.86477727184001</v>
-      </c>
-      <c r="D37">
-        <v>93.237695206946697</v>
-      </c>
-      <c r="E37">
-        <v>165.8647772718794</v>
-      </c>
-      <c r="G37" s="8">
-        <v>32</v>
-      </c>
-      <c r="H37" s="9">
-        <f t="shared" si="0"/>
-        <v>0.30767081923848122</v>
-      </c>
-      <c r="I37" s="10">
-        <f t="shared" si="1"/>
-        <v>3.2502269876457861</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>37</v>
-      </c>
-      <c r="C38">
-        <v>121.51621972213</v>
-      </c>
-      <c r="D38">
-        <v>72.931433919805926</v>
-      </c>
-      <c r="E38">
-        <v>121.5162197221634</v>
-      </c>
-      <c r="G38" s="8">
-        <v>33</v>
-      </c>
-      <c r="H38" s="9">
-        <f t="shared" ref="H38:H69" si="2">(4*PI()*E34)/((D34)^2)</f>
-        <v>0.44617674327700529</v>
-      </c>
-      <c r="I38" s="10">
-        <f t="shared" si="1"/>
-        <v>2.2412642861108472</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>38</v>
-      </c>
-      <c r="C39">
-        <v>432.61422313949993</v>
-      </c>
-      <c r="D39">
-        <v>124.092450170379</v>
-      </c>
-      <c r="E39">
-        <v>432.61422313952983</v>
-      </c>
-      <c r="G39" s="8">
-        <v>34</v>
-      </c>
-      <c r="H39" s="9">
-        <f t="shared" si="2"/>
-        <v>0.23032390276831036</v>
-      </c>
-      <c r="I39" s="10">
-        <f t="shared" si="1"/>
-        <v>4.3417117719038032</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>39</v>
-      </c>
-      <c r="C40">
-        <v>1216.2150304500999</v>
-      </c>
-      <c r="D40">
-        <v>238.1562834867475</v>
-      </c>
-      <c r="E40">
-        <v>1216.215030450697</v>
-      </c>
-      <c r="G40" s="8">
-        <v>35</v>
-      </c>
-      <c r="H40" s="9">
-        <f t="shared" si="2"/>
-        <v>0.32937420658206634</v>
-      </c>
-      <c r="I40" s="10">
-        <f t="shared" si="1"/>
-        <v>3.0360604443713219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>40</v>
-      </c>
-      <c r="C41">
-        <v>542.01016460545998</v>
-      </c>
-      <c r="D41">
-        <v>176.63119576136339</v>
-      </c>
-      <c r="E41">
-        <v>542.01016460497874</v>
-      </c>
-      <c r="G41" s="8">
-        <v>36</v>
-      </c>
-      <c r="H41" s="9">
-        <f t="shared" si="2"/>
-        <v>0.23976234359966686</v>
-      </c>
-      <c r="I41" s="10">
-        <f t="shared" si="1"/>
-        <v>4.1707967355779108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>41</v>
-      </c>
-      <c r="C42">
-        <v>2100.6845537547401</v>
-      </c>
-      <c r="D42">
-        <v>320.13905498321861</v>
-      </c>
-      <c r="E42">
-        <v>2100.6845537533868</v>
-      </c>
-      <c r="G42" s="8">
-        <v>37</v>
-      </c>
-      <c r="H42" s="9">
-        <f t="shared" si="2"/>
-        <v>0.28708771570281655</v>
-      </c>
-      <c r="I42" s="10">
-        <f t="shared" si="1"/>
-        <v>3.483255971269652</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>42</v>
-      </c>
-      <c r="C43">
-        <v>1986.72922118464</v>
-      </c>
-      <c r="D43">
-        <v>328.7888680267107</v>
-      </c>
-      <c r="E43">
-        <v>1986.7292211858239</v>
-      </c>
-      <c r="G43" s="8">
-        <v>38</v>
-      </c>
-      <c r="H43" s="9">
-        <f t="shared" si="2"/>
-        <v>0.35303676787726035</v>
-      </c>
-      <c r="I43" s="10">
-        <f t="shared" si="1"/>
-        <v>2.8325661545475858</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>43</v>
-      </c>
-      <c r="C44">
-        <v>1452.47584485724</v>
-      </c>
-      <c r="D44">
-        <v>298.34582690690797</v>
-      </c>
-      <c r="E44">
-        <v>1452.475844858104</v>
-      </c>
-      <c r="G44" s="8">
-        <v>39</v>
-      </c>
-      <c r="H44" s="9">
-        <f t="shared" si="2"/>
-        <v>0.26946113923060855</v>
-      </c>
-      <c r="I44" s="10">
-        <f t="shared" si="1"/>
-        <v>3.7111102656779993</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>44</v>
-      </c>
-      <c r="C45">
-        <v>754.5114741269299</v>
-      </c>
-      <c r="D45">
-        <v>217.5785933196079</v>
-      </c>
-      <c r="E45">
-        <v>754.51147412675346</v>
-      </c>
-      <c r="G45" s="8">
-        <v>40</v>
-      </c>
-      <c r="H45" s="9">
-        <f t="shared" si="2"/>
-        <v>0.21831444746791742</v>
-      </c>
-      <c r="I45" s="10">
-        <f t="shared" si="1"/>
-        <v>4.5805488899077824</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>45</v>
-      </c>
-      <c r="C46">
-        <v>83.774203633959999</v>
-      </c>
-      <c r="D46">
-        <v>60.283455111371858</v>
-      </c>
-      <c r="E46">
-        <v>83.774203613528229</v>
-      </c>
-      <c r="G46" s="8">
-        <v>41</v>
-      </c>
-      <c r="H46" s="9">
-        <f t="shared" si="2"/>
-        <v>0.2575688796358202</v>
-      </c>
-      <c r="I46" s="10">
-        <f t="shared" si="1"/>
-        <v>3.8824566128249356</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>46</v>
-      </c>
-      <c r="C47">
-        <v>56.110176050089997</v>
-      </c>
-      <c r="D47">
-        <v>61.061541647280087</v>
-      </c>
-      <c r="E47">
-        <v>56.110176050087183</v>
-      </c>
-      <c r="G47" s="8">
-        <v>42</v>
-      </c>
-      <c r="H47" s="9">
-        <f t="shared" si="2"/>
-        <v>0.230948068032714</v>
-      </c>
-      <c r="I47" s="10">
-        <f t="shared" si="1"/>
-        <v>4.3299777673756035</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>47</v>
-      </c>
-      <c r="C48">
-        <v>207.51689132811001</v>
-      </c>
-      <c r="D48">
-        <v>119.06357718058101</v>
-      </c>
-      <c r="E48">
-        <v>207.51689132811109</v>
-      </c>
-      <c r="G48" s="8">
-        <v>43</v>
-      </c>
-      <c r="H48" s="9">
-        <f t="shared" si="2"/>
-        <v>0.20505900586966996</v>
-      </c>
-      <c r="I48" s="10">
-        <f t="shared" si="1"/>
-        <v>4.876645118603439</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>48</v>
-      </c>
-      <c r="C49">
-        <v>55.111595325419998</v>
-      </c>
-      <c r="D49">
-        <v>51.448569975673692</v>
-      </c>
-      <c r="E49">
-        <v>55.111595325419053</v>
-      </c>
-      <c r="G49" s="8">
-        <v>44</v>
-      </c>
-      <c r="H49" s="9">
-        <f t="shared" si="2"/>
-        <v>0.20028267505050865</v>
-      </c>
-      <c r="I49" s="10">
-        <f t="shared" si="1"/>
-        <v>4.9929430977882294</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>49</v>
-      </c>
-      <c r="C50">
-        <v>295.20110104386009</v>
-      </c>
-      <c r="D50">
-        <v>122.53821435979501</v>
-      </c>
-      <c r="E50">
-        <v>295.20110104385247</v>
-      </c>
-      <c r="G50" s="8">
-        <v>45</v>
-      </c>
-      <c r="H50" s="9">
-        <f t="shared" si="2"/>
-        <v>0.28968359442171743</v>
-      </c>
-      <c r="I50" s="10">
-        <f t="shared" si="1"/>
-        <v>3.4520422255746164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>50</v>
-      </c>
-      <c r="C51">
-        <v>135.03629301473001</v>
-      </c>
-      <c r="D51">
-        <v>70.922480005147946</v>
-      </c>
-      <c r="E51">
-        <v>135.0362930146587</v>
-      </c>
-      <c r="G51" s="8">
-        <v>46</v>
-      </c>
-      <c r="H51" s="9">
-        <f t="shared" si="2"/>
-        <v>0.18911064048611501</v>
-      </c>
-      <c r="I51" s="10">
-        <f>1/H51</f>
-        <v>5.2879097518228892</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>51</v>
-      </c>
-      <c r="C52">
-        <v>1241.70166325786</v>
-      </c>
-      <c r="D52">
-        <v>233.7676661720198</v>
-      </c>
-      <c r="E52">
-        <v>1241.7016632578921</v>
-      </c>
-      <c r="G52" s="8">
-        <v>47</v>
-      </c>
-      <c r="H52" s="9">
-        <f t="shared" si="2"/>
-        <v>0.18395240236902727</v>
-      </c>
-      <c r="I52" s="10">
-        <f t="shared" ref="I52:I115" si="3">1/H52</f>
-        <v>5.43618885712565</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>52</v>
-      </c>
-      <c r="C53">
-        <v>935.43983613913974</v>
-      </c>
-      <c r="D53">
-        <v>183.98960544064681</v>
-      </c>
-      <c r="E53">
-        <v>935.43983613932642</v>
-      </c>
-      <c r="G53" s="8">
-        <v>48</v>
-      </c>
-      <c r="H53" s="9">
-        <f t="shared" si="2"/>
-        <v>0.26164125939742905</v>
-      </c>
-      <c r="I53" s="10">
-        <f t="shared" si="3"/>
-        <v>3.8220271615533519</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>53</v>
-      </c>
-      <c r="C54">
-        <v>1780.0810123274</v>
-      </c>
-      <c r="D54">
-        <v>230.07015255197561</v>
-      </c>
-      <c r="E54">
-        <v>1780.0810123275969</v>
-      </c>
-      <c r="G54" s="8">
-        <v>49</v>
-      </c>
-      <c r="H54" s="9">
-        <f t="shared" si="2"/>
-        <v>0.24704993394200919</v>
-      </c>
-      <c r="I54" s="10">
-        <f t="shared" si="3"/>
-        <v>4.0477646929253304</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>54</v>
-      </c>
-      <c r="C55">
-        <v>1569.771718531063</v>
-      </c>
-      <c r="D55">
-        <v>287.45653956703239</v>
-      </c>
-      <c r="E55">
-        <v>1569.7717185314209</v>
-      </c>
-      <c r="G55" s="8">
-        <v>50</v>
-      </c>
-      <c r="H55" s="9">
-        <f t="shared" si="2"/>
-        <v>0.33735918921501462</v>
-      </c>
-      <c r="I55" s="10">
-        <f t="shared" si="3"/>
-        <v>2.9641996778770232</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>55</v>
-      </c>
-      <c r="C56">
-        <v>2023.7488203023299</v>
-      </c>
-      <c r="D56">
-        <v>349.10465986237801</v>
-      </c>
-      <c r="E56">
-        <v>2023.7488203003111</v>
-      </c>
-      <c r="G56" s="8">
-        <v>51</v>
-      </c>
-      <c r="H56" s="9">
-        <f t="shared" si="2"/>
-        <v>0.28553427311696272</v>
-      </c>
-      <c r="I56" s="10">
-        <f t="shared" si="3"/>
-        <v>3.5022065445375534</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>56</v>
-      </c>
-      <c r="C57">
-        <v>448.86374699638992</v>
-      </c>
-      <c r="D57">
-        <v>161.71941514512019</v>
-      </c>
-      <c r="E57">
-        <v>448.86374699646223</v>
-      </c>
-      <c r="G57" s="8">
-        <v>52</v>
-      </c>
-      <c r="H57" s="9">
-        <f t="shared" si="2"/>
-        <v>0.34724751657887032</v>
-      </c>
-      <c r="I57" s="10">
-        <f t="shared" si="3"/>
-        <v>2.8797902137706721</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>57</v>
-      </c>
-      <c r="C58">
-        <v>1675.9408845875489</v>
-      </c>
-      <c r="D58">
-        <v>285.83401082690699</v>
-      </c>
-      <c r="E58">
-        <v>1675.940884584727</v>
-      </c>
-      <c r="G58" s="8">
-        <v>53</v>
-      </c>
-      <c r="H58" s="9">
-        <f t="shared" si="2"/>
-        <v>0.42259958946074033</v>
-      </c>
-      <c r="I58" s="10">
-        <f t="shared" si="3"/>
-        <v>2.3663061321854415</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>58</v>
-      </c>
-      <c r="C59">
-        <v>186.32643743711</v>
-      </c>
-      <c r="D59">
-        <v>107.2139278843767</v>
-      </c>
-      <c r="E59">
-        <v>186.32643743710781</v>
-      </c>
-      <c r="G59" s="8">
-        <v>54</v>
-      </c>
-      <c r="H59" s="9">
-        <f t="shared" si="2"/>
-        <v>0.23872724056445682</v>
-      </c>
-      <c r="I59" s="10">
-        <f t="shared" si="3"/>
-        <v>4.1888809908561653</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>59</v>
-      </c>
-      <c r="C60">
-        <v>666.26964757899998</v>
-      </c>
-      <c r="D60">
-        <v>201.92148499412659</v>
-      </c>
-      <c r="E60">
-        <v>666.26964757921075</v>
-      </c>
-      <c r="G60" s="8">
-        <v>55</v>
-      </c>
-      <c r="H60" s="9">
-        <f t="shared" si="2"/>
-        <v>0.20866767684671814</v>
-      </c>
-      <c r="I60" s="10">
-        <f t="shared" si="3"/>
-        <v>4.7923090682347222</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>60</v>
-      </c>
-      <c r="C61">
-        <v>745.40159142239997</v>
-      </c>
-      <c r="D61">
-        <v>174.50329352007981</v>
-      </c>
-      <c r="E61">
-        <v>745.40159142253231</v>
-      </c>
-      <c r="G61" s="8">
-        <v>56</v>
-      </c>
-      <c r="H61" s="9">
-        <f t="shared" si="2"/>
-        <v>0.21567513097360311</v>
-      </c>
-      <c r="I61" s="10">
-        <f t="shared" si="3"/>
-        <v>4.6366031887208727</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>61</v>
-      </c>
-      <c r="C62">
-        <v>140.26131345034</v>
-      </c>
-      <c r="D62">
-        <v>81.848881080916627</v>
-      </c>
-      <c r="E62">
-        <v>140.26131345041011</v>
-      </c>
-      <c r="G62" s="8">
-        <v>57</v>
-      </c>
-      <c r="H62" s="9">
-        <f t="shared" si="2"/>
-        <v>0.25777497474365241</v>
-      </c>
-      <c r="I62" s="10">
-        <f t="shared" si="3"/>
-        <v>3.8793525282834871</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>62</v>
-      </c>
-      <c r="C63">
-        <v>59.782238193700003</v>
-      </c>
-      <c r="D63">
-        <v>61.398651125743811</v>
-      </c>
-      <c r="E63">
-        <v>59.782238193676783</v>
-      </c>
-      <c r="G63" s="8">
-        <v>58</v>
-      </c>
-      <c r="H63" s="9">
-        <f t="shared" si="2"/>
-        <v>0.20369573235646987</v>
-      </c>
-      <c r="I63" s="10">
-        <f t="shared" si="3"/>
-        <v>4.9092830194890311</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>63</v>
-      </c>
-      <c r="C64">
-        <v>97.26421430297998</v>
-      </c>
-      <c r="D64">
-        <v>51.676472805137358</v>
-      </c>
-      <c r="E64">
-        <v>97.264214303001097</v>
-      </c>
-      <c r="G64" s="8">
-        <v>59</v>
-      </c>
-      <c r="H64" s="9">
-        <f t="shared" si="2"/>
-        <v>0.2053500581150938</v>
-      </c>
-      <c r="I64" s="10">
-        <f t="shared" si="3"/>
-        <v>4.8697332213050748</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>64</v>
-      </c>
-      <c r="C65">
-        <v>2315.0517444155998</v>
-      </c>
-      <c r="D65">
-        <v>286.41390656646081</v>
-      </c>
-      <c r="E65">
-        <v>2315.051744416231</v>
-      </c>
-      <c r="G65" s="8">
-        <v>60</v>
-      </c>
-      <c r="H65" s="9">
-        <f t="shared" si="2"/>
-        <v>0.30760466920173146</v>
-      </c>
-      <c r="I65" s="10">
-        <f t="shared" si="3"/>
-        <v>3.2509259452891657</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>65</v>
-      </c>
-      <c r="C66">
-        <v>778.6613808341599</v>
-      </c>
-      <c r="D66">
-        <v>166.86750229524719</v>
-      </c>
-      <c r="E66">
-        <v>778.66138083415967</v>
-      </c>
-      <c r="G66" s="8">
-        <v>61</v>
-      </c>
-      <c r="H66" s="9">
-        <f t="shared" si="2"/>
-        <v>0.2631008626124347</v>
-      </c>
-      <c r="I66" s="10">
-        <f t="shared" si="3"/>
-        <v>3.8008237223952679</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>66</v>
-      </c>
-      <c r="C67">
-        <v>2123.6945297612401</v>
-      </c>
-      <c r="D67">
-        <v>379.06305914659191</v>
-      </c>
-      <c r="E67">
-        <v>2123.6945297619968</v>
-      </c>
-      <c r="G67" s="8">
-        <v>62</v>
-      </c>
-      <c r="H67" s="9">
-        <f t="shared" si="2"/>
-        <v>0.19928030272864111</v>
-      </c>
-      <c r="I67" s="10">
-        <f t="shared" si="3"/>
-        <v>5.0180574111315686</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>67</v>
-      </c>
-      <c r="C68">
-        <v>174.74033447887001</v>
-      </c>
-      <c r="D68">
-        <v>81.15127414475829</v>
-      </c>
-      <c r="E68">
-        <v>174.74033447879791</v>
-      </c>
-      <c r="G68" s="8">
-        <v>63</v>
-      </c>
-      <c r="H68" s="9">
-        <f t="shared" si="2"/>
-        <v>0.45769610941424183</v>
-      </c>
-      <c r="I68" s="10">
-        <f t="shared" si="3"/>
-        <v>2.1848558015487551</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>68</v>
-      </c>
-      <c r="C69">
-        <v>90.933313166950001</v>
-      </c>
-      <c r="D69">
-        <v>65.81373282825578</v>
-      </c>
-      <c r="E69">
-        <v>90.93331316693974</v>
-      </c>
-      <c r="G69" s="8">
-        <v>64</v>
-      </c>
-      <c r="H69" s="9">
-        <f t="shared" si="2"/>
-        <v>0.35463562833541518</v>
-      </c>
-      <c r="I69" s="10">
-        <f t="shared" si="3"/>
-        <v>2.8197956440355108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>69</v>
-      </c>
-      <c r="C70">
-        <v>82.939253886699987</v>
-      </c>
-      <c r="D70">
-        <v>61.97442138749291</v>
-      </c>
-      <c r="E70">
-        <v>82.939253886742364</v>
-      </c>
-      <c r="G70" s="8">
-        <v>65</v>
-      </c>
-      <c r="H70" s="9">
-        <f t="shared" ref="H70:H101" si="4">(4*PI()*E66)/((D66)^2)</f>
-        <v>0.35141069009662984</v>
-      </c>
-      <c r="I70" s="10">
-        <f t="shared" si="3"/>
-        <v>2.8456732483722194</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>70</v>
-      </c>
-      <c r="C71">
-        <v>1643.4777401952399</v>
-      </c>
-      <c r="D71">
-        <v>353.95257590948341</v>
-      </c>
-      <c r="E71">
-        <v>1643.4777401947381</v>
-      </c>
-      <c r="G71" s="8">
-        <v>66</v>
-      </c>
-      <c r="H71" s="9">
-        <f t="shared" si="4"/>
-        <v>0.18572868595783557</v>
-      </c>
-      <c r="I71" s="10">
-        <f t="shared" si="3"/>
-        <v>5.3841978951330205</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>71</v>
-      </c>
-      <c r="C72">
-        <v>180.49388974991001</v>
-      </c>
-      <c r="D72">
-        <v>63.626863547504392</v>
-      </c>
-      <c r="E72">
-        <v>180.49388974991879</v>
-      </c>
-      <c r="G72" s="8">
-        <v>67</v>
-      </c>
-      <c r="H72" s="9">
-        <f t="shared" si="4"/>
-        <v>0.33343588736275165</v>
-      </c>
-      <c r="I72" s="10">
-        <f t="shared" si="3"/>
-        <v>2.9990772976157776</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>72</v>
-      </c>
-      <c r="C73">
-        <v>51.777582245024988</v>
-      </c>
-      <c r="D73">
-        <v>42.726269763382753</v>
-      </c>
-      <c r="E73">
-        <v>51.777582245019381</v>
-      </c>
-      <c r="G73" s="8">
-        <v>68</v>
-      </c>
-      <c r="H73" s="9">
-        <f t="shared" si="4"/>
-        <v>0.2638152103272377</v>
-      </c>
-      <c r="I73" s="10">
-        <f t="shared" si="3"/>
-        <v>3.7905320120079318</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>73</v>
-      </c>
-      <c r="C74">
-        <v>285.58717659689</v>
-      </c>
-      <c r="D74">
-        <v>119.4913965820799</v>
-      </c>
-      <c r="E74">
-        <v>285.58717659700682</v>
-      </c>
-      <c r="G74" s="8">
-        <v>69</v>
-      </c>
-      <c r="H74" s="9">
-        <f t="shared" si="4"/>
-        <v>0.27135949771303897</v>
-      </c>
-      <c r="I74" s="10">
-        <f t="shared" si="3"/>
-        <v>3.6851483306381043</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>74</v>
-      </c>
-      <c r="C75">
-        <v>42.410016158791997</v>
-      </c>
-      <c r="D75">
-        <v>44.134938955984737</v>
-      </c>
-      <c r="E75">
-        <v>42.410016158779811</v>
-      </c>
-      <c r="G75" s="8">
-        <v>70</v>
-      </c>
-      <c r="H75" s="9">
-        <f t="shared" si="4"/>
-        <v>0.16484794428308192</v>
-      </c>
-      <c r="I75" s="10">
-        <f t="shared" si="3"/>
-        <v>6.0661963626478075</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>75</v>
-      </c>
-      <c r="C76">
-        <v>358.41049026981</v>
-      </c>
-      <c r="D76">
-        <v>87.310128654411244</v>
-      </c>
-      <c r="E76">
-        <v>358.41049026999718</v>
-      </c>
-      <c r="G76" s="8">
-        <v>71</v>
-      </c>
-      <c r="H76" s="9">
-        <f t="shared" si="4"/>
-        <v>0.56026221957200573</v>
-      </c>
-      <c r="I76" s="10">
-        <f t="shared" si="3"/>
-        <v>1.7848785177125057</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>76</v>
-      </c>
-      <c r="C77">
-        <v>91.813998336449998</v>
-      </c>
-      <c r="D77">
-        <v>61.849566143634853</v>
-      </c>
-      <c r="E77">
-        <v>91.813998336416077</v>
-      </c>
-      <c r="G77" s="8">
-        <v>72</v>
-      </c>
-      <c r="H77" s="9">
-        <f t="shared" si="4"/>
-        <v>0.3564196790761871</v>
-      </c>
-      <c r="I77" s="10">
-        <f t="shared" si="3"/>
-        <v>2.8056812199369139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>77</v>
-      </c>
-      <c r="C78">
-        <v>91.350499827540006</v>
-      </c>
-      <c r="D78">
-        <v>65.106888032079866</v>
-      </c>
-      <c r="E78">
-        <v>91.350499827516515</v>
-      </c>
-      <c r="G78" s="8">
-        <v>73</v>
-      </c>
-      <c r="H78" s="9">
-        <f t="shared" si="4"/>
-        <v>0.25134791835263093</v>
-      </c>
-      <c r="I78" s="10">
-        <f t="shared" si="3"/>
-        <v>3.9785489633418827</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>78</v>
-      </c>
-      <c r="C79">
-        <v>49.80903065663</v>
-      </c>
-      <c r="D79">
-        <v>46.554045455901637</v>
-      </c>
-      <c r="E79">
-        <v>49.809030656666224</v>
-      </c>
-      <c r="G79" s="8">
-        <v>74</v>
-      </c>
-      <c r="H79" s="9">
-        <f t="shared" si="4"/>
-        <v>0.27359820354858583</v>
-      </c>
-      <c r="I79" s="10">
-        <f t="shared" si="3"/>
-        <v>3.6549947588468688</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>79</v>
-      </c>
-      <c r="C80">
-        <v>121.51803415776</v>
-      </c>
-      <c r="D80">
-        <v>64.403860691333364</v>
-      </c>
-      <c r="E80">
-        <v>121.518034157714</v>
-      </c>
-      <c r="G80" s="8">
-        <v>75</v>
-      </c>
-      <c r="H80" s="9">
-        <f t="shared" si="4"/>
-        <v>0.59082834193377487</v>
-      </c>
-      <c r="I80" s="10">
-        <f t="shared" si="3"/>
-        <v>1.692538981334258</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>80</v>
-      </c>
-      <c r="C81">
-        <v>1520.4017251565199</v>
-      </c>
-      <c r="D81">
-        <v>285.71929600414938</v>
-      </c>
-      <c r="E81">
-        <v>1520.4017251555349</v>
-      </c>
-      <c r="G81" s="8">
-        <v>76</v>
-      </c>
-      <c r="H81" s="9">
-        <f t="shared" si="4"/>
-        <v>0.30160980059832082</v>
-      </c>
-      <c r="I81" s="10">
-        <f t="shared" si="3"/>
-        <v>3.3155421276637633</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>81</v>
-      </c>
-      <c r="C82">
-        <v>586.73631955224971</v>
-      </c>
-      <c r="D82">
-        <v>152.74034066280811</v>
-      </c>
-      <c r="E82">
-        <v>586.73631955223709</v>
-      </c>
-      <c r="G82" s="8">
-        <v>77</v>
-      </c>
-      <c r="H82" s="9">
-        <f t="shared" si="4"/>
-        <v>0.27081138417421186</v>
-      </c>
-      <c r="I82" s="10">
-        <f t="shared" si="3"/>
-        <v>3.6926069524341121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>82</v>
-      </c>
-      <c r="C83">
-        <v>1634.7227932298899</v>
-      </c>
-      <c r="D83">
-        <v>303.38880259276908</v>
-      </c>
-      <c r="E83">
-        <v>1634.722793229392</v>
-      </c>
-      <c r="G83" s="8">
-        <v>78</v>
-      </c>
-      <c r="H83" s="9">
-        <f t="shared" si="4"/>
-        <v>0.28880393172318353</v>
-      </c>
-      <c r="I83" s="10">
-        <f t="shared" si="3"/>
-        <v>3.4625567388690981</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>83</v>
-      </c>
-      <c r="C84">
-        <v>289.03892062745001</v>
-      </c>
-      <c r="D84">
-        <v>102.7578360409762</v>
-      </c>
-      <c r="E84">
-        <v>289.03892062748992</v>
-      </c>
-      <c r="G84" s="8">
-        <v>79</v>
-      </c>
-      <c r="H84" s="9">
-        <f t="shared" si="4"/>
-        <v>0.36815168734983578</v>
-      </c>
-      <c r="I84" s="10">
-        <f t="shared" si="3"/>
-        <v>2.7162716737727486</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>84</v>
-      </c>
-      <c r="C85">
-        <v>445.13251133985</v>
-      </c>
-      <c r="D85">
-        <v>197.32517117255381</v>
-      </c>
-      <c r="E85">
-        <v>445.13251133992662</v>
-      </c>
-      <c r="G85" s="8">
-        <v>80</v>
-      </c>
-      <c r="H85" s="9">
-        <f t="shared" si="4"/>
-        <v>0.23403945331196568</v>
-      </c>
-      <c r="I85" s="10">
-        <f t="shared" si="3"/>
-        <v>4.2727838654922765</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>85</v>
-      </c>
-      <c r="C86">
-        <v>159.588859481078</v>
-      </c>
-      <c r="D86">
-        <v>97.284947635389031</v>
-      </c>
-      <c r="E86">
-        <v>159.5888594810198</v>
-      </c>
-      <c r="G86" s="8">
-        <v>81</v>
-      </c>
-      <c r="H86" s="9">
-        <f t="shared" si="4"/>
-        <v>0.3160423821031742</v>
-      </c>
-      <c r="I86" s="10">
-        <f t="shared" si="3"/>
-        <v>3.1641325867286469</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>86</v>
-      </c>
-      <c r="C87">
-        <v>1838.6070319456801</v>
-      </c>
-      <c r="D87">
-        <v>233.90960664772291</v>
-      </c>
-      <c r="E87">
-        <v>1838.6070319438929</v>
-      </c>
-      <c r="G87" s="8">
-        <v>82</v>
-      </c>
-      <c r="H87" s="9">
-        <f t="shared" si="4"/>
-        <v>0.22317980116783148</v>
-      </c>
-      <c r="I87" s="10">
-        <f t="shared" si="3"/>
-        <v>4.480692225583617</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>87</v>
-      </c>
-      <c r="C88">
-        <v>104.51382247878</v>
-      </c>
-      <c r="D88">
-        <v>77.857361365861991</v>
-      </c>
-      <c r="E88">
-        <v>104.5138224787528</v>
-      </c>
-      <c r="G88" s="8">
-        <v>83</v>
-      </c>
-      <c r="H88" s="9">
-        <f t="shared" si="4"/>
-        <v>0.34398245431205238</v>
-      </c>
-      <c r="I88" s="10">
-        <f t="shared" si="3"/>
-        <v>2.907125021826912</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>88</v>
-      </c>
-      <c r="C89">
-        <v>314.32394106244999</v>
-      </c>
-      <c r="D89">
-        <v>102.7509698229246</v>
-      </c>
-      <c r="E89">
-        <v>314.32394106249791</v>
-      </c>
-      <c r="G89" s="8">
-        <v>84</v>
-      </c>
-      <c r="H89" s="9">
-        <f t="shared" si="4"/>
-        <v>0.14365945112178866</v>
-      </c>
-      <c r="I89" s="10">
-        <f t="shared" si="3"/>
-        <v>6.9609064505769309</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>89</v>
-      </c>
-      <c r="C90">
-        <v>88.452807691670003</v>
-      </c>
-      <c r="D90">
-        <v>62.357110302070907</v>
-      </c>
-      <c r="E90">
-        <v>88.452807691641937</v>
-      </c>
-      <c r="G90" s="8">
-        <v>85</v>
-      </c>
-      <c r="H90" s="9">
-        <f t="shared" si="4"/>
-        <v>0.21189520839749007</v>
-      </c>
-      <c r="I90" s="10">
-        <f t="shared" si="3"/>
-        <v>4.7193138889866715</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>90</v>
-      </c>
-      <c r="C91">
-        <v>2423.6981229613498</v>
-      </c>
-      <c r="D91">
-        <v>297.45948739889008</v>
-      </c>
-      <c r="E91">
-        <v>2423.6981229623379</v>
-      </c>
-      <c r="G91" s="8">
-        <v>86</v>
-      </c>
-      <c r="H91" s="9">
-        <f t="shared" si="4"/>
-        <v>0.42228209120895371</v>
-      </c>
-      <c r="I91" s="10">
-        <f t="shared" si="3"/>
-        <v>2.3680852700551296</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>91</v>
-      </c>
-      <c r="C92">
-        <v>3535.95965673098</v>
-      </c>
-      <c r="D92">
-        <v>369.86752288895099</v>
-      </c>
-      <c r="E92">
-        <v>3535.9596567310709</v>
-      </c>
-      <c r="G92" s="8">
-        <v>87</v>
-      </c>
-      <c r="H92" s="9">
-        <f t="shared" si="4"/>
-        <v>0.21666274127323601</v>
-      </c>
-      <c r="I92" s="10">
-        <f t="shared" si="3"/>
-        <v>4.6154682347477909</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>92</v>
-      </c>
-      <c r="C93">
-        <v>502.89823506226998</v>
-      </c>
-      <c r="D93">
-        <v>229.74770553850931</v>
-      </c>
-      <c r="E93">
-        <v>502.89823506246972</v>
-      </c>
-      <c r="G93" s="8">
-        <v>88</v>
-      </c>
-      <c r="H93" s="9">
-        <f t="shared" si="4"/>
-        <v>0.37412391104761517</v>
-      </c>
-      <c r="I93" s="10">
-        <f t="shared" si="3"/>
-        <v>2.6729112213111899</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>93</v>
-      </c>
-      <c r="C94">
-        <v>988.82136838692008</v>
-      </c>
-      <c r="D94">
-        <v>246.89799648692161</v>
-      </c>
-      <c r="E94">
-        <v>988.82136838705287</v>
-      </c>
-      <c r="G94" s="8">
-        <v>89</v>
-      </c>
-      <c r="H94" s="9">
-        <f t="shared" si="4"/>
-        <v>0.28585745601062529</v>
-      </c>
-      <c r="I94" s="10">
-        <f t="shared" si="3"/>
-        <v>3.498247042270012</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>94</v>
-      </c>
-      <c r="C95">
-        <v>39.244641467148007</v>
-      </c>
-      <c r="D95">
-        <v>43.071836691833653</v>
-      </c>
-      <c r="E95">
-        <v>39.244641467156399</v>
-      </c>
-      <c r="G95" s="8">
-        <v>90</v>
-      </c>
-      <c r="H95" s="9">
-        <f t="shared" si="4"/>
-        <v>0.34421733678260402</v>
-      </c>
-      <c r="I95" s="10">
-        <f t="shared" si="3"/>
-        <v>2.9051412963303647</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>95</v>
-      </c>
-      <c r="C96">
-        <v>778.40104596589993</v>
-      </c>
-      <c r="D96">
-        <v>181.29945320650381</v>
-      </c>
-      <c r="E96">
-        <v>778.40104596610331</v>
-      </c>
-      <c r="G96" s="8">
-        <v>91</v>
-      </c>
-      <c r="H96" s="9">
-        <f t="shared" si="4"/>
-        <v>0.3248065420264406</v>
-      </c>
-      <c r="I96" s="10">
-        <f t="shared" si="3"/>
-        <v>3.0787557225943925</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>96</v>
-      </c>
-      <c r="C97">
-        <v>1282.370573959279</v>
-      </c>
-      <c r="D97">
-        <v>188.64508210537579</v>
-      </c>
-      <c r="E97">
-        <v>1282.3705739590271</v>
-      </c>
-      <c r="G97" s="8">
-        <v>92</v>
-      </c>
-      <c r="H97" s="9">
-        <f t="shared" si="4"/>
-        <v>0.11972576199844215</v>
-      </c>
-      <c r="I97" s="10">
-        <f t="shared" si="3"/>
-        <v>8.3524212609564508</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>97</v>
-      </c>
-      <c r="C98">
-        <v>286.49435610508999</v>
-      </c>
-      <c r="D98">
-        <v>125.31006173841909</v>
-      </c>
-      <c r="E98">
-        <v>286.49435610505037</v>
-      </c>
-      <c r="G98" s="8">
-        <v>93</v>
-      </c>
-      <c r="H98" s="9">
-        <f t="shared" si="4"/>
-        <v>0.20384148542285502</v>
-      </c>
-      <c r="I98" s="10">
-        <f t="shared" si="3"/>
-        <v>4.9057727278898575</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>98</v>
-      </c>
-      <c r="C99">
-        <v>38.239690650175987</v>
-      </c>
-      <c r="D99">
-        <v>41.754023519381271</v>
-      </c>
-      <c r="E99">
-        <v>38.239690650167397</v>
-      </c>
-      <c r="G99" s="8">
-        <v>94</v>
-      </c>
-      <c r="H99" s="9">
-        <f t="shared" si="4"/>
-        <v>0.26582966665044416</v>
-      </c>
-      <c r="I99" s="10">
-        <f t="shared" si="3"/>
-        <v>3.7618073731212314</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>99</v>
-      </c>
-      <c r="C100">
-        <v>202.54180245043</v>
-      </c>
-      <c r="D100">
-        <v>100.06435749580299</v>
-      </c>
-      <c r="E100">
-        <v>202.54180243557849</v>
-      </c>
-      <c r="G100" s="8">
-        <v>95</v>
-      </c>
-      <c r="H100" s="9">
-        <f t="shared" si="4"/>
-        <v>0.29759133818309502</v>
-      </c>
-      <c r="I100" s="10">
-        <f t="shared" si="3"/>
-        <v>3.3603128575763299</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>100</v>
-      </c>
-      <c r="C101">
-        <v>1207.6552407557001</v>
-      </c>
-      <c r="D101">
-        <v>210.7217567266444</v>
-      </c>
-      <c r="E101">
-        <v>1207.6552407549991</v>
-      </c>
-      <c r="G101" s="8">
-        <v>96</v>
-      </c>
-      <c r="H101" s="9">
-        <f t="shared" si="4"/>
-        <v>0.45282712337259989</v>
-      </c>
-      <c r="I101" s="10">
-        <f t="shared" si="3"/>
-        <v>2.208348282126134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102">
-        <v>101</v>
-      </c>
-      <c r="C102">
-        <v>2882.2533893733498</v>
-      </c>
-      <c r="D102">
-        <v>383.19523220071392</v>
-      </c>
-      <c r="E102">
-        <v>2882.2533893737418</v>
-      </c>
-      <c r="G102" s="8">
-        <v>97</v>
-      </c>
-      <c r="H102" s="9">
-        <f t="shared" ref="H102:H129" si="5">(4*PI()*E98)/((D98)^2)</f>
-        <v>0.22927359828187363</v>
-      </c>
-      <c r="I102" s="10">
-        <f t="shared" si="3"/>
-        <v>4.3616011939175818</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103">
-        <v>102</v>
-      </c>
-      <c r="C103">
-        <v>2073.9130769703402</v>
-      </c>
-      <c r="D103">
-        <v>413.9331476569788</v>
-      </c>
-      <c r="E103">
-        <v>2073.9130769706931</v>
-      </c>
-      <c r="G103" s="8">
-        <v>98</v>
-      </c>
-      <c r="H103" s="9">
-        <f t="shared" si="5"/>
-        <v>0.27563068936065932</v>
-      </c>
-      <c r="I103" s="10">
-        <f t="shared" si="3"/>
-        <v>3.6280430249605207</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104">
-        <v>103</v>
-      </c>
-      <c r="C104">
-        <v>1951.64771172574</v>
-      </c>
-      <c r="D104">
-        <v>345.15147677183268</v>
-      </c>
-      <c r="E104">
-        <v>1951.647711726722</v>
-      </c>
-      <c r="G104" s="8">
-        <v>99</v>
-      </c>
-      <c r="H104" s="9">
-        <f t="shared" si="5"/>
-        <v>0.25419424404630209</v>
-      </c>
-      <c r="I104" s="10">
-        <f t="shared" si="3"/>
-        <v>3.9339993859886442</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105">
-        <v>104</v>
-      </c>
-      <c r="C105">
-        <v>233.55288339163999</v>
-      </c>
-      <c r="D105">
-        <v>81.048717898651731</v>
-      </c>
-      <c r="E105">
-        <v>233.55288339168069</v>
-      </c>
-      <c r="G105" s="8">
-        <v>100</v>
-      </c>
-      <c r="H105" s="9">
-        <f t="shared" si="5"/>
-        <v>0.34177010981057776</v>
-      </c>
-      <c r="I105" s="10">
-        <f t="shared" si="3"/>
-        <v>2.9259434084339286</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106">
-        <v>105</v>
-      </c>
-      <c r="C106">
-        <v>837.26528653465982</v>
-      </c>
-      <c r="D106">
-        <v>220.229864612754</v>
-      </c>
-      <c r="E106">
-        <v>837.26528651376782</v>
-      </c>
-      <c r="G106" s="8">
-        <v>101</v>
-      </c>
-      <c r="H106" s="9">
-        <f t="shared" si="5"/>
-        <v>0.24666176164323267</v>
-      </c>
-      <c r="I106" s="10">
-        <f t="shared" si="3"/>
-        <v>4.0541346714550057</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107">
-        <v>106</v>
-      </c>
-      <c r="C107">
-        <v>94.555169694880007</v>
-      </c>
-      <c r="D107">
-        <v>64.219669669994971</v>
-      </c>
-      <c r="E107">
-        <v>94.555169694810118</v>
-      </c>
-      <c r="G107" s="8">
-        <v>102</v>
-      </c>
-      <c r="H107" s="9">
-        <f t="shared" si="5"/>
-        <v>0.15210377827015067</v>
-      </c>
-      <c r="I107" s="10">
-        <f t="shared" si="3"/>
-        <v>6.5744586450962812</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108">
-        <v>107</v>
-      </c>
-      <c r="C108">
-        <v>169.74084111022</v>
-      </c>
-      <c r="D108">
-        <v>65.880779687196025</v>
-      </c>
-      <c r="E108">
-        <v>169.7408411101529</v>
-      </c>
-      <c r="G108" s="8">
-        <v>103</v>
-      </c>
-      <c r="H108" s="9">
-        <f t="shared" si="5"/>
-        <v>0.20586940954705604</v>
-      </c>
-      <c r="I108" s="10">
-        <f t="shared" si="3"/>
-        <v>4.8574482347821943</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109">
-        <v>108</v>
-      </c>
-      <c r="C109">
-        <v>1216.73706587684</v>
-      </c>
-      <c r="D109">
-        <v>251.41666996122029</v>
-      </c>
-      <c r="E109">
-        <v>1216.7370658771949</v>
-      </c>
-      <c r="G109" s="8">
-        <v>104</v>
-      </c>
-      <c r="H109" s="9">
-        <f t="shared" si="5"/>
-        <v>0.4467893362346908</v>
-      </c>
-      <c r="I109" s="10">
-        <f t="shared" si="3"/>
-        <v>2.2381912881526724</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110">
-        <v>109</v>
-      </c>
-      <c r="C110">
-        <v>62.402371293498</v>
-      </c>
-      <c r="D110">
-        <v>45.045711656554872</v>
-      </c>
-      <c r="E110">
-        <v>62.402371293463723</v>
-      </c>
-      <c r="G110" s="8">
-        <v>105</v>
-      </c>
-      <c r="H110" s="9">
-        <f t="shared" si="5"/>
-        <v>0.21693045436785119</v>
-      </c>
-      <c r="I110" s="10">
-        <f t="shared" si="3"/>
-        <v>4.6097723019760508</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111">
-        <v>110</v>
-      </c>
-      <c r="C111">
-        <v>81.814200145650986</v>
-      </c>
-      <c r="D111">
-        <v>57.558982279053247</v>
-      </c>
-      <c r="E111">
-        <v>81.814200145644449</v>
-      </c>
-      <c r="G111" s="8">
-        <v>106</v>
-      </c>
-      <c r="H111" s="9">
-        <f t="shared" si="5"/>
-        <v>0.28811044798025565</v>
-      </c>
-      <c r="I111" s="10">
-        <f t="shared" si="3"/>
-        <v>3.4708911357096306</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112">
-        <v>111</v>
-      </c>
-      <c r="C112">
-        <v>59.177593886051987</v>
-      </c>
-      <c r="D112">
-        <v>61.115820223874152</v>
-      </c>
-      <c r="E112">
-        <v>59.17759388610677</v>
-      </c>
-      <c r="G112" s="8">
-        <v>107</v>
-      </c>
-      <c r="H112" s="9">
-        <f t="shared" si="5"/>
-        <v>0.49144933671679047</v>
-      </c>
-      <c r="I112" s="10">
-        <f t="shared" si="3"/>
-        <v>2.034797740659632</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113">
-        <v>112</v>
-      </c>
-      <c r="C113">
-        <v>233.723548556917</v>
-      </c>
-      <c r="D113">
-        <v>91.799923224490911</v>
-      </c>
-      <c r="E113">
-        <v>233.723548556737</v>
-      </c>
-      <c r="G113" s="8">
-        <v>108</v>
-      </c>
-      <c r="H113" s="9">
-        <f t="shared" si="5"/>
-        <v>0.24189030532236966</v>
-      </c>
-      <c r="I113" s="10">
-        <f t="shared" si="3"/>
-        <v>4.1341053278976592</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114">
-        <v>113</v>
-      </c>
-      <c r="C114">
-        <v>41.477871069824992</v>
-      </c>
-      <c r="D114">
-        <v>51.946612537925191</v>
-      </c>
-      <c r="E114">
-        <v>41.477871069814327</v>
-      </c>
-      <c r="G114" s="8">
-        <v>109</v>
-      </c>
-      <c r="H114" s="9">
-        <f t="shared" si="5"/>
-        <v>0.38645955741694449</v>
-      </c>
-      <c r="I114" s="10">
-        <f t="shared" si="3"/>
-        <v>2.5875928821217311</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115">
-        <v>114</v>
-      </c>
-      <c r="C115">
-        <v>99.492851721270981</v>
-      </c>
-      <c r="D115">
-        <v>74.023205869048169</v>
-      </c>
-      <c r="E115">
-        <v>99.492851721331533</v>
-      </c>
-      <c r="G115" s="8">
-        <v>110</v>
-      </c>
-      <c r="H115" s="9">
-        <f t="shared" si="5"/>
-        <v>0.31032183884976861</v>
-      </c>
-      <c r="I115" s="10">
-        <f t="shared" si="3"/>
-        <v>3.2224609254268914</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116">
-        <v>115</v>
-      </c>
-      <c r="C116">
-        <v>264.74221903847098</v>
-      </c>
-      <c r="D116">
-        <v>70.21744528219098</v>
-      </c>
-      <c r="E116">
-        <v>264.74221903819819</v>
-      </c>
-      <c r="G116" s="8">
-        <v>111</v>
-      </c>
-      <c r="H116" s="9">
-        <f t="shared" si="5"/>
-        <v>0.19909478189923618</v>
-      </c>
-      <c r="I116" s="10">
-        <f t="shared" ref="I116:I129" si="6">1/H116</f>
-        <v>5.0227333456991845</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117">
-        <v>116</v>
-      </c>
-      <c r="C117">
-        <v>1026.8746340544999</v>
-      </c>
-      <c r="D117">
-        <v>189.08872106065479</v>
-      </c>
-      <c r="E117">
-        <v>1026.87463405523</v>
-      </c>
-      <c r="G117" s="8">
-        <v>112</v>
-      </c>
-      <c r="H117" s="9">
-        <f t="shared" si="5"/>
-        <v>0.3485199953006165</v>
-      </c>
-      <c r="I117" s="10">
-        <f t="shared" si="6"/>
-        <v>2.8692758334782149</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118">
-        <v>117</v>
-      </c>
-      <c r="C118">
-        <v>71.496676727950003</v>
-      </c>
-      <c r="D118">
-        <v>76.658513834031382</v>
-      </c>
-      <c r="E118">
-        <v>71.496676727911563</v>
-      </c>
-      <c r="G118" s="8">
-        <v>113</v>
-      </c>
-      <c r="H118" s="9">
-        <f t="shared" si="5"/>
-        <v>0.19315762497605474</v>
-      </c>
-      <c r="I118" s="10">
-        <f t="shared" si="6"/>
-        <v>5.1771189468910039</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119">
-        <v>118</v>
-      </c>
-      <c r="C119">
-        <v>273.98611669076013</v>
-      </c>
-      <c r="D119">
-        <v>125.8139805676897</v>
-      </c>
-      <c r="E119">
-        <v>273.98611669038002</v>
-      </c>
-      <c r="G119" s="8">
-        <v>114</v>
-      </c>
-      <c r="H119" s="9">
-        <f t="shared" si="5"/>
-        <v>0.22817389869256879</v>
-      </c>
-      <c r="I119" s="10">
-        <f t="shared" si="6"/>
-        <v>4.3826222268628321</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120">
-        <v>119</v>
-      </c>
-      <c r="C120">
-        <v>353.05861258973101</v>
-      </c>
-      <c r="D120">
-        <v>141.68213465483279</v>
-      </c>
-      <c r="E120">
-        <v>353.05861259009828</v>
-      </c>
-      <c r="G120" s="8">
-        <v>115</v>
-      </c>
-      <c r="H120" s="9">
-        <f t="shared" si="5"/>
-        <v>0.67475019659022029</v>
-      </c>
-      <c r="I120" s="10">
-        <f t="shared" si="6"/>
-        <v>1.4820299498294267</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121">
-        <v>120</v>
-      </c>
-      <c r="C121">
-        <v>438.72038414295002</v>
-      </c>
-      <c r="D121">
-        <v>199.64271229289869</v>
-      </c>
-      <c r="E121">
-        <v>438.72038414298697</v>
-      </c>
-      <c r="G121" s="8">
-        <v>116</v>
-      </c>
-      <c r="H121" s="9">
-        <f t="shared" si="5"/>
-        <v>0.36090761135095389</v>
-      </c>
-      <c r="I121" s="10">
-        <f t="shared" si="6"/>
-        <v>2.7707922153727584</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122">
-        <v>121</v>
-      </c>
-      <c r="C122">
-        <v>2514.8298107126011</v>
-      </c>
-      <c r="D122">
-        <v>392.07593074849768</v>
-      </c>
-      <c r="E122">
-        <v>2514.829810712205</v>
-      </c>
-      <c r="G122" s="8">
-        <v>117</v>
-      </c>
-      <c r="H122" s="9">
-        <f t="shared" si="5"/>
-        <v>0.15288853838750743</v>
-      </c>
-      <c r="I122" s="10">
-        <f t="shared" si="6"/>
-        <v>6.5407126691565667</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123">
-        <v>122</v>
-      </c>
-      <c r="C123">
-        <v>3087.2010664107011</v>
-      </c>
-      <c r="D123">
-        <v>444.92980573985221</v>
-      </c>
-      <c r="E123">
-        <v>3087.2010664111021</v>
-      </c>
-      <c r="G123" s="8">
-        <v>118</v>
-      </c>
-      <c r="H123" s="9">
-        <f t="shared" si="5"/>
-        <v>0.21751069446688784</v>
-      </c>
-      <c r="I123" s="10">
-        <f t="shared" si="6"/>
-        <v>4.5974750917464995</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124">
-        <v>123</v>
-      </c>
-      <c r="C124">
-        <v>374.60471950499999</v>
-      </c>
-      <c r="D124">
-        <v>106.8025217512065</v>
-      </c>
-      <c r="E124">
-        <v>374.60471950509879</v>
-      </c>
-      <c r="G124" s="8">
-        <v>119</v>
-      </c>
-      <c r="H124" s="9">
-        <f t="shared" si="5"/>
-        <v>0.22101741299436131</v>
-      </c>
-      <c r="I124" s="10">
-        <f t="shared" si="6"/>
-        <v>4.5245303818007878</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125">
-        <v>124</v>
-      </c>
-      <c r="C125">
-        <v>352.14231286130001</v>
-      </c>
-      <c r="D125">
-        <v>123.1298037268766</v>
-      </c>
-      <c r="E125">
-        <v>352.14231286126301</v>
-      </c>
-      <c r="G125" s="8">
-        <v>120</v>
-      </c>
-      <c r="H125" s="9">
-        <f t="shared" si="5"/>
-        <v>0.13832183907246268</v>
-      </c>
-      <c r="I125" s="10">
-        <f t="shared" si="6"/>
-        <v>7.2295163707021697</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G126" s="8">
-        <v>121</v>
-      </c>
-      <c r="H126" s="9">
-        <f t="shared" si="5"/>
-        <v>0.20557869252976341</v>
-      </c>
-      <c r="I126" s="10">
-        <f t="shared" si="6"/>
-        <v>4.8643173458028555</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G127" s="8">
-        <v>122</v>
-      </c>
-      <c r="H127" s="9">
-        <f t="shared" si="5"/>
-        <v>0.19597098684598604</v>
-      </c>
-      <c r="I127" s="10">
-        <f t="shared" si="6"/>
-        <v>5.1027961643419282</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G128" s="8">
-        <v>123</v>
-      </c>
-      <c r="H128" s="9">
-        <f t="shared" si="5"/>
-        <v>0.4126863405201342</v>
-      </c>
-      <c r="I128" s="10">
-        <f t="shared" si="6"/>
-        <v>2.4231478045520913</v>
-      </c>
-    </row>
-    <row r="129" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G129" s="8">
-        <v>124</v>
-      </c>
-      <c r="H129" s="9">
-        <f t="shared" si="5"/>
-        <v>0.29187822867421986</v>
-      </c>
-      <c r="I129" s="10">
-        <f t="shared" si="6"/>
-        <v>3.4260862981875597</v>
-      </c>
-    </row>
-    <row r="130" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G130" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H130" s="40"/>
-      <c r="I130" s="43">
-        <f>SUM(I6:I129)</f>
-        <v>474.3763194188507</v>
-      </c>
-    </row>
-    <row r="131" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G131" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="H131" s="42"/>
-      <c r="I131" s="44"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:I4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>